--- a/Busn218-Video11_edit.xlsx
+++ b/Busn218-Video11_edit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galvanize/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148D1929-113F-AC4E-BE4A-A707F7E5B471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB2993A-F70D-6D4C-BBF5-D6F223F8DE52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12580" yWindow="460" windowWidth="16220" windowHeight="16240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="4" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="25" r:id="rId1"/>
@@ -3777,8 +3777,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="ddd"/>
     <numFmt numFmtId="165" formatCode="0&quot;''&quot;"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
@@ -4169,13 +4170,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4349,8 +4351,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Currency" xfId="4" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -7476,14 +7488,16 @@
   </sheetPr>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="128" customWidth="1"/>
     <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2.1640625" customWidth="1"/>
     <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
@@ -7499,12 +7513,21 @@
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="D1" s="129"/>
       <c r="E1" s="70"/>
       <c r="F1" s="70"/>
       <c r="G1" s="70"/>
       <c r="H1" s="70"/>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D4"/>
+    </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
         <v>196</v>
@@ -7515,7 +7538,7 @@
       <c r="C5" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="127" t="s">
         <v>216</v>
       </c>
       <c r="G5" s="28" t="s">
@@ -7535,7 +7558,10 @@
       <c r="C6" s="5">
         <v>73</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="44">
+        <f>VLOOKUP(C6,$G$6:$H$9,2)</f>
+        <v>50</v>
+      </c>
       <c r="G6" s="71">
         <v>0</v>
       </c>
@@ -7553,7 +7579,10 @@
       <c r="C7" s="5">
         <v>22</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="44">
+        <f t="shared" ref="D7:D30" si="0">VLOOKUP(C7,$G$6:$H$9,2)</f>
+        <v>0</v>
+      </c>
       <c r="G7" s="5">
         <v>60</v>
       </c>
@@ -7571,7 +7600,10 @@
       <c r="C8" s="5">
         <v>92</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="44">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
       <c r="G8" s="5">
         <v>90</v>
       </c>
@@ -7589,7 +7621,10 @@
       <c r="C9" s="5">
         <v>77</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="44">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
       <c r="G9" s="5">
         <v>150</v>
       </c>
@@ -7607,7 +7642,10 @@
       <c r="C10" s="5">
         <v>78</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="44">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
@@ -7619,7 +7657,10 @@
       <c r="C11" s="5">
         <v>93</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="44">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
@@ -7631,7 +7672,10 @@
       <c r="C12" s="5">
         <v>90</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="44">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
@@ -7643,7 +7687,10 @@
       <c r="C13" s="5">
         <v>88</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="44">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
@@ -7655,7 +7702,10 @@
       <c r="C14" s="5">
         <v>77</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="44">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
@@ -7667,7 +7717,10 @@
       <c r="C15" s="5">
         <v>81</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="44">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
@@ -7679,7 +7732,10 @@
       <c r="C16" s="5">
         <v>81</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="44">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
@@ -7691,7 +7747,10 @@
       <c r="C17" s="5">
         <v>86</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="44">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
@@ -7703,7 +7762,10 @@
       <c r="C18" s="5">
         <v>91</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="D18" s="44">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
@@ -7715,7 +7777,10 @@
       <c r="C19" s="5">
         <v>84</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="D19" s="44">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
@@ -7727,7 +7792,10 @@
       <c r="C20" s="5">
         <v>89</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="44">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
@@ -7739,7 +7807,10 @@
       <c r="C21" s="5">
         <v>74</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="44">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
@@ -7751,7 +7822,10 @@
       <c r="C22" s="5">
         <v>86</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="44">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
@@ -7763,7 +7837,10 @@
       <c r="C23" s="5">
         <v>94</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="D23" s="44">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
@@ -7775,7 +7852,10 @@
       <c r="C24" s="5">
         <v>70</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="44">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
@@ -7787,7 +7867,10 @@
       <c r="C25" s="5">
         <v>0</v>
       </c>
-      <c r="D25" s="8"/>
+      <c r="D25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
@@ -7799,7 +7882,10 @@
       <c r="C26" s="5">
         <v>86</v>
       </c>
-      <c r="D26" s="8"/>
+      <c r="D26" s="44">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
@@ -7811,7 +7897,10 @@
       <c r="C27" s="5">
         <v>88</v>
       </c>
-      <c r="D27" s="8"/>
+      <c r="D27" s="44">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
@@ -7823,7 +7912,10 @@
       <c r="C28" s="5">
         <v>94</v>
       </c>
-      <c r="D28" s="8"/>
+      <c r="D28" s="44">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
@@ -7835,7 +7927,10 @@
       <c r="C29" s="5">
         <v>84</v>
       </c>
-      <c r="D29" s="8"/>
+      <c r="D29" s="44">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
@@ -7847,7 +7942,10 @@
       <c r="C30" s="5">
         <v>79</v>
       </c>
-      <c r="D30" s="8"/>
+      <c r="D30" s="44">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7862,7 +7960,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8323,8 +8421,1722 @@
   </sheetPr>
   <dimension ref="A1:AE90"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView zoomScale="135" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="73" t="str">
+        <f>"In cell "&amp;ADDRESS(ROW(A4),COLUMN(A4),4)&amp;" add a drop-down list for "&amp;A3&amp;". Then in range "&amp;ADDRESS(ROW(B4),COLUMN(B4),4)&amp;":"&amp;ADDRESS(ROW(E4),COLUMN(E4),4)&amp;" create a formula that will retrieve the employee data from the table below."</f>
+        <v>In cell A4 add a drop-down list for Employee ID. Then in range B4:E4 create a formula that will retrieve the employee data from the table below.</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="AA1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AA2" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA3" t="str">
+        <f ca="1">CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;"-"&amp;RANDBETWEEN(1000,9999)&amp;"-"&amp;TEXT(ROWS(AA$2:AA3),"0000")</f>
+        <v>CIZV-3821-0002</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD3" s="74">
+        <f t="shared" ref="AD3" ca="1" si="0">RANDBETWEEN(37000,40300)</f>
+        <v>39011</v>
+      </c>
+      <c r="AE3" s="69">
+        <f ca="1">RANDBETWEEN(29000,59000)</f>
+        <v>51183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4" s="75" t="str">
+        <f>VLOOKUP($A$4,$A$7:$E$90,MATCH(B3,$A$6:$E$6, 0),FALSE)</f>
+        <v>FirstName5</v>
+      </c>
+      <c r="C4" s="75" t="str">
+        <f t="shared" ref="C4:E4" si="1">VLOOKUP($A$4,$A$7:$E$90,MATCH(C3,$A$6:$E$6, 0),FALSE)</f>
+        <v>LastName6</v>
+      </c>
+      <c r="D4" s="130">
+        <f t="shared" si="1"/>
+        <v>39503</v>
+      </c>
+      <c r="E4" s="131">
+        <f t="shared" si="1"/>
+        <v>38656</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="H5" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="K5" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="I6" s="75" t="str">
+        <f>VLOOKUP($H$6,$A$7:$E$90,MATCH(I5,$A$6:$E$6, 0),FALSE)</f>
+        <v>FirstName9</v>
+      </c>
+      <c r="J6" s="75" t="str">
+        <f t="shared" ref="J6:L6" si="2">VLOOKUP($H$6,$A$7:$E$90,MATCH(J5,$A$6:$E$6, 0),FALSE)</f>
+        <v>LastName10</v>
+      </c>
+      <c r="K6" s="75">
+        <f t="shared" si="2"/>
+        <v>37689</v>
+      </c>
+      <c r="L6" s="75">
+        <f t="shared" si="2"/>
+        <v>58644</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D7" s="74">
+        <v>38532</v>
+      </c>
+      <c r="E7" s="69">
+        <v>53543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D8" s="74">
+        <v>38478</v>
+      </c>
+      <c r="E8" s="69">
+        <v>29713</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" t="s">
+        <v>257</v>
+      </c>
+      <c r="D9" s="74">
+        <v>40189</v>
+      </c>
+      <c r="E9" s="69">
+        <v>58222</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D10" s="74">
+        <v>40280</v>
+      </c>
+      <c r="E10" s="69">
+        <v>31083</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="I10" s="75" t="str">
+        <f>VLOOKUP($H$10,$A$7:$E$90,MATCH(I9,$A$6:$E$6, 0),FALSE)</f>
+        <v>FirstName9</v>
+      </c>
+      <c r="J10" s="75" t="str">
+        <f t="shared" ref="J10:L10" si="3">VLOOKUP($H$10,$A$7:$E$90,MATCH(J9,$A$6:$E$6, 0),FALSE)</f>
+        <v>LastName10</v>
+      </c>
+      <c r="K10" s="75">
+        <f t="shared" si="3"/>
+        <v>37689</v>
+      </c>
+      <c r="L10" s="75">
+        <f t="shared" si="3"/>
+        <v>58644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D11" s="74">
+        <v>39503</v>
+      </c>
+      <c r="E11" s="69">
+        <v>38656</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>264</v>
+      </c>
+      <c r="B12" t="s">
+        <v>265</v>
+      </c>
+      <c r="C12" t="s">
+        <v>266</v>
+      </c>
+      <c r="D12" s="74">
+        <v>37133</v>
+      </c>
+      <c r="E12" s="69">
+        <v>56298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>267</v>
+      </c>
+      <c r="B13" t="s">
+        <v>268</v>
+      </c>
+      <c r="C13" t="s">
+        <v>269</v>
+      </c>
+      <c r="D13" s="74">
+        <v>37177</v>
+      </c>
+      <c r="E13" s="69">
+        <v>40540</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="L13" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>270</v>
+      </c>
+      <c r="B14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D14" s="74">
+        <v>37474</v>
+      </c>
+      <c r="E14" s="69">
+        <v>32458</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="I14" s="75"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>249</v>
+      </c>
+      <c r="B15" t="s">
+        <v>273</v>
+      </c>
+      <c r="C15" t="s">
+        <v>274</v>
+      </c>
+      <c r="D15" s="74">
+        <v>37689</v>
+      </c>
+      <c r="E15" s="69">
+        <v>58644</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>275</v>
+      </c>
+      <c r="B16" t="s">
+        <v>276</v>
+      </c>
+      <c r="C16" t="s">
+        <v>277</v>
+      </c>
+      <c r="D16" s="74">
+        <v>37932</v>
+      </c>
+      <c r="E16" s="69">
+        <v>36264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>278</v>
+      </c>
+      <c r="B17" t="s">
+        <v>279</v>
+      </c>
+      <c r="C17" t="s">
+        <v>280</v>
+      </c>
+      <c r="D17" s="74">
+        <v>38636</v>
+      </c>
+      <c r="E17" s="69">
+        <v>34630</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="K17" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="L17" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>281</v>
+      </c>
+      <c r="B18" t="s">
+        <v>282</v>
+      </c>
+      <c r="C18" t="s">
+        <v>283</v>
+      </c>
+      <c r="D18" s="74">
+        <v>37506</v>
+      </c>
+      <c r="E18" s="69">
+        <v>52432</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="I18" s="75"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="16"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>284</v>
+      </c>
+      <c r="B19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C19" t="s">
+        <v>286</v>
+      </c>
+      <c r="D19" s="74">
+        <v>37599</v>
+      </c>
+      <c r="E19" s="69">
+        <v>39565</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>287</v>
+      </c>
+      <c r="B20" t="s">
+        <v>288</v>
+      </c>
+      <c r="C20" t="s">
+        <v>289</v>
+      </c>
+      <c r="D20" s="74">
+        <v>40276</v>
+      </c>
+      <c r="E20" s="69">
+        <v>32941</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>290</v>
+      </c>
+      <c r="B21" t="s">
+        <v>291</v>
+      </c>
+      <c r="C21" t="s">
+        <v>292</v>
+      </c>
+      <c r="D21" s="74">
+        <v>38830</v>
+      </c>
+      <c r="E21" s="69">
+        <v>52813</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="J21" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="K21" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="L21" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>293</v>
+      </c>
+      <c r="B22" t="s">
+        <v>294</v>
+      </c>
+      <c r="C22" t="s">
+        <v>295</v>
+      </c>
+      <c r="D22" s="74">
+        <v>37509</v>
+      </c>
+      <c r="E22" s="69">
+        <v>48002</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="I22" s="75"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="16"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>296</v>
+      </c>
+      <c r="B23" t="s">
+        <v>297</v>
+      </c>
+      <c r="C23" t="s">
+        <v>298</v>
+      </c>
+      <c r="D23" s="74">
+        <v>37892</v>
+      </c>
+      <c r="E23" s="69">
+        <v>30414</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>299</v>
+      </c>
+      <c r="B24" t="s">
+        <v>300</v>
+      </c>
+      <c r="C24" t="s">
+        <v>301</v>
+      </c>
+      <c r="D24" s="74">
+        <v>37341</v>
+      </c>
+      <c r="E24" s="69">
+        <v>46956</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>302</v>
+      </c>
+      <c r="B25" t="s">
+        <v>303</v>
+      </c>
+      <c r="C25" t="s">
+        <v>304</v>
+      </c>
+      <c r="D25" s="74">
+        <v>39800</v>
+      </c>
+      <c r="E25" s="69">
+        <v>45420</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>305</v>
+      </c>
+      <c r="B26" t="s">
+        <v>306</v>
+      </c>
+      <c r="C26" t="s">
+        <v>307</v>
+      </c>
+      <c r="D26" s="74">
+        <v>39491</v>
+      </c>
+      <c r="E26" s="69">
+        <v>38059</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>308</v>
+      </c>
+      <c r="B27" t="s">
+        <v>309</v>
+      </c>
+      <c r="C27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D27" s="74">
+        <v>38301</v>
+      </c>
+      <c r="E27" s="69">
+        <v>51869</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>311</v>
+      </c>
+      <c r="B28" t="s">
+        <v>312</v>
+      </c>
+      <c r="C28" t="s">
+        <v>313</v>
+      </c>
+      <c r="D28" s="74">
+        <v>38053</v>
+      </c>
+      <c r="E28" s="69">
+        <v>32333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>314</v>
+      </c>
+      <c r="B29" t="s">
+        <v>315</v>
+      </c>
+      <c r="C29" t="s">
+        <v>316</v>
+      </c>
+      <c r="D29" s="74">
+        <v>39015</v>
+      </c>
+      <c r="E29" s="69">
+        <v>56868</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>317</v>
+      </c>
+      <c r="B30" t="s">
+        <v>318</v>
+      </c>
+      <c r="C30" t="s">
+        <v>319</v>
+      </c>
+      <c r="D30" s="74">
+        <v>40033</v>
+      </c>
+      <c r="E30" s="69">
+        <v>31846</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>320</v>
+      </c>
+      <c r="B31" t="s">
+        <v>321</v>
+      </c>
+      <c r="C31" t="s">
+        <v>322</v>
+      </c>
+      <c r="D31" s="74">
+        <v>37990</v>
+      </c>
+      <c r="E31" s="69">
+        <v>45553</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>323</v>
+      </c>
+      <c r="B32" t="s">
+        <v>324</v>
+      </c>
+      <c r="C32" t="s">
+        <v>325</v>
+      </c>
+      <c r="D32" s="74">
+        <v>37743</v>
+      </c>
+      <c r="E32" s="69">
+        <v>37253</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>326</v>
+      </c>
+      <c r="B33" t="s">
+        <v>327</v>
+      </c>
+      <c r="C33" t="s">
+        <v>328</v>
+      </c>
+      <c r="D33" s="74">
+        <v>37940</v>
+      </c>
+      <c r="E33" s="69">
+        <v>53211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>329</v>
+      </c>
+      <c r="B34" t="s">
+        <v>330</v>
+      </c>
+      <c r="C34" t="s">
+        <v>331</v>
+      </c>
+      <c r="D34" s="74">
+        <v>38433</v>
+      </c>
+      <c r="E34" s="69">
+        <v>44756</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>332</v>
+      </c>
+      <c r="B35" t="s">
+        <v>333</v>
+      </c>
+      <c r="C35" t="s">
+        <v>334</v>
+      </c>
+      <c r="D35" s="74">
+        <v>38088</v>
+      </c>
+      <c r="E35" s="69">
+        <v>52914</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>335</v>
+      </c>
+      <c r="B36" t="s">
+        <v>336</v>
+      </c>
+      <c r="C36" t="s">
+        <v>337</v>
+      </c>
+      <c r="D36" s="74">
+        <v>38056</v>
+      </c>
+      <c r="E36" s="69">
+        <v>38639</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>338</v>
+      </c>
+      <c r="B37" t="s">
+        <v>339</v>
+      </c>
+      <c r="C37" t="s">
+        <v>340</v>
+      </c>
+      <c r="D37" s="74">
+        <v>39647</v>
+      </c>
+      <c r="E37" s="69">
+        <v>39784</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>341</v>
+      </c>
+      <c r="B38" t="s">
+        <v>342</v>
+      </c>
+      <c r="C38" t="s">
+        <v>343</v>
+      </c>
+      <c r="D38" s="74">
+        <v>38235</v>
+      </c>
+      <c r="E38" s="69">
+        <v>47441</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>344</v>
+      </c>
+      <c r="B39" t="s">
+        <v>345</v>
+      </c>
+      <c r="C39" t="s">
+        <v>346</v>
+      </c>
+      <c r="D39" s="74">
+        <v>37944</v>
+      </c>
+      <c r="E39" s="69">
+        <v>29245</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>347</v>
+      </c>
+      <c r="B40" t="s">
+        <v>348</v>
+      </c>
+      <c r="C40" t="s">
+        <v>349</v>
+      </c>
+      <c r="D40" s="74">
+        <v>38601</v>
+      </c>
+      <c r="E40" s="69">
+        <v>50076</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>350</v>
+      </c>
+      <c r="B41" t="s">
+        <v>351</v>
+      </c>
+      <c r="C41" t="s">
+        <v>352</v>
+      </c>
+      <c r="D41" s="74">
+        <v>40253</v>
+      </c>
+      <c r="E41" s="69">
+        <v>55045</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>353</v>
+      </c>
+      <c r="B42" t="s">
+        <v>354</v>
+      </c>
+      <c r="C42" t="s">
+        <v>355</v>
+      </c>
+      <c r="D42" s="74">
+        <v>38153</v>
+      </c>
+      <c r="E42" s="69">
+        <v>48541</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>356</v>
+      </c>
+      <c r="B43" t="s">
+        <v>357</v>
+      </c>
+      <c r="C43" t="s">
+        <v>358</v>
+      </c>
+      <c r="D43" s="74">
+        <v>39446</v>
+      </c>
+      <c r="E43" s="69">
+        <v>58564</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>359</v>
+      </c>
+      <c r="B44" t="s">
+        <v>360</v>
+      </c>
+      <c r="C44" t="s">
+        <v>361</v>
+      </c>
+      <c r="D44" s="74">
+        <v>39914</v>
+      </c>
+      <c r="E44" s="69">
+        <v>39727</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>362</v>
+      </c>
+      <c r="B45" t="s">
+        <v>363</v>
+      </c>
+      <c r="C45" t="s">
+        <v>364</v>
+      </c>
+      <c r="D45" s="74">
+        <v>39882</v>
+      </c>
+      <c r="E45" s="69">
+        <v>36487</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>365</v>
+      </c>
+      <c r="B46" t="s">
+        <v>366</v>
+      </c>
+      <c r="C46" t="s">
+        <v>367</v>
+      </c>
+      <c r="D46" s="74">
+        <v>38964</v>
+      </c>
+      <c r="E46" s="69">
+        <v>40059</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>368</v>
+      </c>
+      <c r="B47" t="s">
+        <v>369</v>
+      </c>
+      <c r="C47" t="s">
+        <v>370</v>
+      </c>
+      <c r="D47" s="74">
+        <v>38713</v>
+      </c>
+      <c r="E47" s="69">
+        <v>53426</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>371</v>
+      </c>
+      <c r="B48" t="s">
+        <v>372</v>
+      </c>
+      <c r="C48" t="s">
+        <v>373</v>
+      </c>
+      <c r="D48" s="74">
+        <v>37092</v>
+      </c>
+      <c r="E48" s="69">
+        <v>29305</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>374</v>
+      </c>
+      <c r="B49" t="s">
+        <v>375</v>
+      </c>
+      <c r="C49" t="s">
+        <v>376</v>
+      </c>
+      <c r="D49" s="74">
+        <v>37582</v>
+      </c>
+      <c r="E49" s="69">
+        <v>58331</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>377</v>
+      </c>
+      <c r="B50" t="s">
+        <v>378</v>
+      </c>
+      <c r="C50" t="s">
+        <v>379</v>
+      </c>
+      <c r="D50" s="74">
+        <v>39725</v>
+      </c>
+      <c r="E50" s="69">
+        <v>29585</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>380</v>
+      </c>
+      <c r="B51" t="s">
+        <v>381</v>
+      </c>
+      <c r="C51" t="s">
+        <v>382</v>
+      </c>
+      <c r="D51" s="74">
+        <v>39142</v>
+      </c>
+      <c r="E51" s="69">
+        <v>33046</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>383</v>
+      </c>
+      <c r="B52" t="s">
+        <v>384</v>
+      </c>
+      <c r="C52" t="s">
+        <v>385</v>
+      </c>
+      <c r="D52" s="74">
+        <v>39083</v>
+      </c>
+      <c r="E52" s="69">
+        <v>45022</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>386</v>
+      </c>
+      <c r="B53" t="s">
+        <v>387</v>
+      </c>
+      <c r="C53" t="s">
+        <v>388</v>
+      </c>
+      <c r="D53" s="74">
+        <v>37144</v>
+      </c>
+      <c r="E53" s="69">
+        <v>46361</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>389</v>
+      </c>
+      <c r="B54" t="s">
+        <v>390</v>
+      </c>
+      <c r="C54" t="s">
+        <v>391</v>
+      </c>
+      <c r="D54" s="74">
+        <v>39089</v>
+      </c>
+      <c r="E54" s="69">
+        <v>53093</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>392</v>
+      </c>
+      <c r="B55" t="s">
+        <v>393</v>
+      </c>
+      <c r="C55" t="s">
+        <v>394</v>
+      </c>
+      <c r="D55" s="74">
+        <v>39593</v>
+      </c>
+      <c r="E55" s="69">
+        <v>57760</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>395</v>
+      </c>
+      <c r="B56" t="s">
+        <v>396</v>
+      </c>
+      <c r="C56" t="s">
+        <v>397</v>
+      </c>
+      <c r="D56" s="74">
+        <v>37188</v>
+      </c>
+      <c r="E56" s="69">
+        <v>50068</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>398</v>
+      </c>
+      <c r="B57" t="s">
+        <v>399</v>
+      </c>
+      <c r="C57" t="s">
+        <v>400</v>
+      </c>
+      <c r="D57" s="74">
+        <v>38622</v>
+      </c>
+      <c r="E57" s="69">
+        <v>34946</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>401</v>
+      </c>
+      <c r="B58" t="s">
+        <v>402</v>
+      </c>
+      <c r="C58" t="s">
+        <v>403</v>
+      </c>
+      <c r="D58" s="74">
+        <v>39961</v>
+      </c>
+      <c r="E58" s="69">
+        <v>47062</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>404</v>
+      </c>
+      <c r="B59" t="s">
+        <v>405</v>
+      </c>
+      <c r="C59" t="s">
+        <v>406</v>
+      </c>
+      <c r="D59" s="74">
+        <v>39460</v>
+      </c>
+      <c r="E59" s="69">
+        <v>36840</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>407</v>
+      </c>
+      <c r="B60" t="s">
+        <v>408</v>
+      </c>
+      <c r="C60" t="s">
+        <v>409</v>
+      </c>
+      <c r="D60" s="74">
+        <v>39900</v>
+      </c>
+      <c r="E60" s="69">
+        <v>56499</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>410</v>
+      </c>
+      <c r="B61" t="s">
+        <v>411</v>
+      </c>
+      <c r="C61" t="s">
+        <v>412</v>
+      </c>
+      <c r="D61" s="74">
+        <v>37257</v>
+      </c>
+      <c r="E61" s="69">
+        <v>30813</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>413</v>
+      </c>
+      <c r="B62" t="s">
+        <v>414</v>
+      </c>
+      <c r="C62" t="s">
+        <v>415</v>
+      </c>
+      <c r="D62" s="74">
+        <v>37052</v>
+      </c>
+      <c r="E62" s="69">
+        <v>46092</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>416</v>
+      </c>
+      <c r="B63" t="s">
+        <v>417</v>
+      </c>
+      <c r="C63" t="s">
+        <v>418</v>
+      </c>
+      <c r="D63" s="74">
+        <v>37404</v>
+      </c>
+      <c r="E63" s="69">
+        <v>33192</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>419</v>
+      </c>
+      <c r="B64" t="s">
+        <v>420</v>
+      </c>
+      <c r="C64" t="s">
+        <v>421</v>
+      </c>
+      <c r="D64" s="74">
+        <v>38564</v>
+      </c>
+      <c r="E64" s="69">
+        <v>41632</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>422</v>
+      </c>
+      <c r="B65" t="s">
+        <v>423</v>
+      </c>
+      <c r="C65" t="s">
+        <v>424</v>
+      </c>
+      <c r="D65" s="74">
+        <v>39459</v>
+      </c>
+      <c r="E65" s="69">
+        <v>37236</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>425</v>
+      </c>
+      <c r="B66" t="s">
+        <v>426</v>
+      </c>
+      <c r="C66" t="s">
+        <v>427</v>
+      </c>
+      <c r="D66" s="74">
+        <v>38301</v>
+      </c>
+      <c r="E66" s="69">
+        <v>58741</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>428</v>
+      </c>
+      <c r="B67" t="s">
+        <v>429</v>
+      </c>
+      <c r="C67" t="s">
+        <v>430</v>
+      </c>
+      <c r="D67" s="74">
+        <v>38450</v>
+      </c>
+      <c r="E67" s="69">
+        <v>40138</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>431</v>
+      </c>
+      <c r="B68" t="s">
+        <v>432</v>
+      </c>
+      <c r="C68" t="s">
+        <v>433</v>
+      </c>
+      <c r="D68" s="74">
+        <v>38590</v>
+      </c>
+      <c r="E68" s="69">
+        <v>42648</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>434</v>
+      </c>
+      <c r="B69" t="s">
+        <v>435</v>
+      </c>
+      <c r="C69" t="s">
+        <v>436</v>
+      </c>
+      <c r="D69" s="74">
+        <v>38705</v>
+      </c>
+      <c r="E69" s="69">
+        <v>40470</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>437</v>
+      </c>
+      <c r="B70" t="s">
+        <v>438</v>
+      </c>
+      <c r="C70" t="s">
+        <v>439</v>
+      </c>
+      <c r="D70" s="74">
+        <v>38375</v>
+      </c>
+      <c r="E70" s="69">
+        <v>55414</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>440</v>
+      </c>
+      <c r="B71" t="s">
+        <v>441</v>
+      </c>
+      <c r="C71" t="s">
+        <v>442</v>
+      </c>
+      <c r="D71" s="74">
+        <v>37608</v>
+      </c>
+      <c r="E71" s="69">
+        <v>37570</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>443</v>
+      </c>
+      <c r="B72" t="s">
+        <v>444</v>
+      </c>
+      <c r="C72" t="s">
+        <v>445</v>
+      </c>
+      <c r="D72" s="74">
+        <v>40103</v>
+      </c>
+      <c r="E72" s="69">
+        <v>37093</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>446</v>
+      </c>
+      <c r="B73" t="s">
+        <v>447</v>
+      </c>
+      <c r="C73" t="s">
+        <v>448</v>
+      </c>
+      <c r="D73" s="74">
+        <v>38565</v>
+      </c>
+      <c r="E73" s="69">
+        <v>49595</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>449</v>
+      </c>
+      <c r="B74" t="s">
+        <v>450</v>
+      </c>
+      <c r="C74" t="s">
+        <v>451</v>
+      </c>
+      <c r="D74" s="74">
+        <v>39274</v>
+      </c>
+      <c r="E74" s="69">
+        <v>34085</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>452</v>
+      </c>
+      <c r="B75" t="s">
+        <v>453</v>
+      </c>
+      <c r="C75" t="s">
+        <v>454</v>
+      </c>
+      <c r="D75" s="74">
+        <v>38712</v>
+      </c>
+      <c r="E75" s="69">
+        <v>53954</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>455</v>
+      </c>
+      <c r="B76" t="s">
+        <v>456</v>
+      </c>
+      <c r="C76" t="s">
+        <v>457</v>
+      </c>
+      <c r="D76" s="74">
+        <v>39000</v>
+      </c>
+      <c r="E76" s="69">
+        <v>47233</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>458</v>
+      </c>
+      <c r="B77" t="s">
+        <v>459</v>
+      </c>
+      <c r="C77" t="s">
+        <v>460</v>
+      </c>
+      <c r="D77" s="74">
+        <v>39277</v>
+      </c>
+      <c r="E77" s="69">
+        <v>51492</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>461</v>
+      </c>
+      <c r="B78" t="s">
+        <v>462</v>
+      </c>
+      <c r="C78" t="s">
+        <v>463</v>
+      </c>
+      <c r="D78" s="74">
+        <v>40127</v>
+      </c>
+      <c r="E78" s="69">
+        <v>38646</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>464</v>
+      </c>
+      <c r="B79" t="s">
+        <v>465</v>
+      </c>
+      <c r="C79" t="s">
+        <v>466</v>
+      </c>
+      <c r="D79" s="74">
+        <v>37353</v>
+      </c>
+      <c r="E79" s="69">
+        <v>33528</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>467</v>
+      </c>
+      <c r="B80" t="s">
+        <v>468</v>
+      </c>
+      <c r="C80" t="s">
+        <v>469</v>
+      </c>
+      <c r="D80" s="74">
+        <v>37162</v>
+      </c>
+      <c r="E80" s="69">
+        <v>36251</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>470</v>
+      </c>
+      <c r="B81" t="s">
+        <v>471</v>
+      </c>
+      <c r="C81" t="s">
+        <v>472</v>
+      </c>
+      <c r="D81" s="74">
+        <v>38974</v>
+      </c>
+      <c r="E81" s="69">
+        <v>48782</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>473</v>
+      </c>
+      <c r="B82" t="s">
+        <v>474</v>
+      </c>
+      <c r="C82" t="s">
+        <v>475</v>
+      </c>
+      <c r="D82" s="74">
+        <v>38110</v>
+      </c>
+      <c r="E82" s="69">
+        <v>35037</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>476</v>
+      </c>
+      <c r="B83" t="s">
+        <v>477</v>
+      </c>
+      <c r="C83" t="s">
+        <v>478</v>
+      </c>
+      <c r="D83" s="74">
+        <v>39428</v>
+      </c>
+      <c r="E83" s="69">
+        <v>42336</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>479</v>
+      </c>
+      <c r="B84" t="s">
+        <v>480</v>
+      </c>
+      <c r="C84" t="s">
+        <v>481</v>
+      </c>
+      <c r="D84" s="74">
+        <v>38682</v>
+      </c>
+      <c r="E84" s="69">
+        <v>31082</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>482</v>
+      </c>
+      <c r="B85" t="s">
+        <v>483</v>
+      </c>
+      <c r="C85" t="s">
+        <v>484</v>
+      </c>
+      <c r="D85" s="74">
+        <v>38933</v>
+      </c>
+      <c r="E85" s="69">
+        <v>38708</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>485</v>
+      </c>
+      <c r="B86" t="s">
+        <v>486</v>
+      </c>
+      <c r="C86" t="s">
+        <v>487</v>
+      </c>
+      <c r="D86" s="74">
+        <v>40117</v>
+      </c>
+      <c r="E86" s="69">
+        <v>47936</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>488</v>
+      </c>
+      <c r="B87" t="s">
+        <v>489</v>
+      </c>
+      <c r="C87" t="s">
+        <v>490</v>
+      </c>
+      <c r="D87" s="74">
+        <v>38645</v>
+      </c>
+      <c r="E87" s="69">
+        <v>35066</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>491</v>
+      </c>
+      <c r="B88" t="s">
+        <v>492</v>
+      </c>
+      <c r="C88" t="s">
+        <v>493</v>
+      </c>
+      <c r="D88" s="74">
+        <v>38293</v>
+      </c>
+      <c r="E88" s="69">
+        <v>46057</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>494</v>
+      </c>
+      <c r="B89" t="s">
+        <v>495</v>
+      </c>
+      <c r="C89" t="s">
+        <v>496</v>
+      </c>
+      <c r="D89" s="74">
+        <v>38570</v>
+      </c>
+      <c r="E89" s="69">
+        <v>37358</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>497</v>
+      </c>
+      <c r="B90" t="s">
+        <v>498</v>
+      </c>
+      <c r="C90" t="s">
+        <v>499</v>
+      </c>
+      <c r="D90" s="74">
+        <v>39141</v>
+      </c>
+      <c r="E90" s="69">
+        <v>50486</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4" xr:uid="{130111FD-5F4D-5D42-9A0B-02555F2D7841}">
+      <formula1>$A$7:$A$90</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:AE90"/>
+  <sheetViews>
+    <sheetView zoomScale="168" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8398,7 +10210,7 @@
       </c>
       <c r="AA3" t="str">
         <f ca="1">CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;"-"&amp;RANDBETWEEN(1000,9999)&amp;"-"&amp;TEXT(ROWS(AA$2:AA3),"0000")</f>
-        <v>JUMV-3657-0002</v>
+        <v>RUWD-8305-0002</v>
       </c>
       <c r="AB3" t="s">
         <v>247</v>
@@ -8408,1682 +10220,11 @@
       </c>
       <c r="AD3" s="74">
         <f t="shared" ref="AD3" ca="1" si="0">RANDBETWEEN(37000,40300)</f>
-        <v>40208</v>
+        <v>38140</v>
       </c>
       <c r="AE3" s="69">
         <f ca="1">RANDBETWEEN(29000,59000)</f>
-        <v>44478</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="16"/>
-      <c r="H4" s="7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="H5" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="J5" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="K5" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="L5" s="28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="I6" s="75"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="16"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>251</v>
-      </c>
-      <c r="B7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C7" t="s">
-        <v>248</v>
-      </c>
-      <c r="D7" s="74">
-        <v>38532</v>
-      </c>
-      <c r="E7" s="69">
-        <v>53543</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>252</v>
-      </c>
-      <c r="B8" t="s">
-        <v>253</v>
-      </c>
-      <c r="C8" t="s">
-        <v>254</v>
-      </c>
-      <c r="D8" s="74">
-        <v>38478</v>
-      </c>
-      <c r="E8" s="69">
-        <v>29713</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>255</v>
-      </c>
-      <c r="B9" t="s">
-        <v>256</v>
-      </c>
-      <c r="C9" t="s">
-        <v>257</v>
-      </c>
-      <c r="D9" s="74">
-        <v>40189</v>
-      </c>
-      <c r="E9" s="69">
-        <v>58222</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="L9" s="28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>258</v>
-      </c>
-      <c r="B10" t="s">
-        <v>259</v>
-      </c>
-      <c r="C10" t="s">
-        <v>260</v>
-      </c>
-      <c r="D10" s="74">
-        <v>40280</v>
-      </c>
-      <c r="E10" s="69">
-        <v>31083</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="I10" s="75"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="16"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>261</v>
-      </c>
-      <c r="B11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C11" t="s">
-        <v>263</v>
-      </c>
-      <c r="D11" s="74">
-        <v>39503</v>
-      </c>
-      <c r="E11" s="69">
-        <v>38656</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>264</v>
-      </c>
-      <c r="B12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C12" t="s">
-        <v>266</v>
-      </c>
-      <c r="D12" s="74">
-        <v>37133</v>
-      </c>
-      <c r="E12" s="69">
-        <v>56298</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>267</v>
-      </c>
-      <c r="B13" t="s">
-        <v>268</v>
-      </c>
-      <c r="C13" t="s">
-        <v>269</v>
-      </c>
-      <c r="D13" s="74">
-        <v>37177</v>
-      </c>
-      <c r="E13" s="69">
-        <v>40540</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="J13" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="K13" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="L13" s="28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>270</v>
-      </c>
-      <c r="B14" t="s">
-        <v>271</v>
-      </c>
-      <c r="C14" t="s">
-        <v>272</v>
-      </c>
-      <c r="D14" s="74">
-        <v>37474</v>
-      </c>
-      <c r="E14" s="69">
-        <v>32458</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="I14" s="75"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="16"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>249</v>
-      </c>
-      <c r="B15" t="s">
-        <v>273</v>
-      </c>
-      <c r="C15" t="s">
-        <v>274</v>
-      </c>
-      <c r="D15" s="74">
-        <v>37689</v>
-      </c>
-      <c r="E15" s="69">
-        <v>58644</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>275</v>
-      </c>
-      <c r="B16" t="s">
-        <v>276</v>
-      </c>
-      <c r="C16" t="s">
-        <v>277</v>
-      </c>
-      <c r="D16" s="74">
-        <v>37932</v>
-      </c>
-      <c r="E16" s="69">
-        <v>36264</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>278</v>
-      </c>
-      <c r="B17" t="s">
-        <v>279</v>
-      </c>
-      <c r="C17" t="s">
-        <v>280</v>
-      </c>
-      <c r="D17" s="74">
-        <v>38636</v>
-      </c>
-      <c r="E17" s="69">
-        <v>34630</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="J17" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="K17" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="L17" s="28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>281</v>
-      </c>
-      <c r="B18" t="s">
-        <v>282</v>
-      </c>
-      <c r="C18" t="s">
-        <v>283</v>
-      </c>
-      <c r="D18" s="74">
-        <v>37506</v>
-      </c>
-      <c r="E18" s="69">
-        <v>52432</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="I18" s="75"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="16"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>284</v>
-      </c>
-      <c r="B19" t="s">
-        <v>285</v>
-      </c>
-      <c r="C19" t="s">
-        <v>286</v>
-      </c>
-      <c r="D19" s="74">
-        <v>37599</v>
-      </c>
-      <c r="E19" s="69">
-        <v>39565</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>287</v>
-      </c>
-      <c r="B20" t="s">
-        <v>288</v>
-      </c>
-      <c r="C20" t="s">
-        <v>289</v>
-      </c>
-      <c r="D20" s="74">
-        <v>40276</v>
-      </c>
-      <c r="E20" s="69">
-        <v>32941</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>290</v>
-      </c>
-      <c r="B21" t="s">
-        <v>291</v>
-      </c>
-      <c r="C21" t="s">
-        <v>292</v>
-      </c>
-      <c r="D21" s="74">
-        <v>38830</v>
-      </c>
-      <c r="E21" s="69">
-        <v>52813</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="I21" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="J21" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="K21" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="L21" s="28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>293</v>
-      </c>
-      <c r="B22" t="s">
-        <v>294</v>
-      </c>
-      <c r="C22" t="s">
-        <v>295</v>
-      </c>
-      <c r="D22" s="74">
-        <v>37509</v>
-      </c>
-      <c r="E22" s="69">
-        <v>48002</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="I22" s="75"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="16"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>296</v>
-      </c>
-      <c r="B23" t="s">
-        <v>297</v>
-      </c>
-      <c r="C23" t="s">
-        <v>298</v>
-      </c>
-      <c r="D23" s="74">
-        <v>37892</v>
-      </c>
-      <c r="E23" s="69">
-        <v>30414</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>299</v>
-      </c>
-      <c r="B24" t="s">
-        <v>300</v>
-      </c>
-      <c r="C24" t="s">
-        <v>301</v>
-      </c>
-      <c r="D24" s="74">
-        <v>37341</v>
-      </c>
-      <c r="E24" s="69">
-        <v>46956</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>302</v>
-      </c>
-      <c r="B25" t="s">
-        <v>303</v>
-      </c>
-      <c r="C25" t="s">
-        <v>304</v>
-      </c>
-      <c r="D25" s="74">
-        <v>39800</v>
-      </c>
-      <c r="E25" s="69">
-        <v>45420</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>305</v>
-      </c>
-      <c r="B26" t="s">
-        <v>306</v>
-      </c>
-      <c r="C26" t="s">
-        <v>307</v>
-      </c>
-      <c r="D26" s="74">
-        <v>39491</v>
-      </c>
-      <c r="E26" s="69">
-        <v>38059</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>308</v>
-      </c>
-      <c r="B27" t="s">
-        <v>309</v>
-      </c>
-      <c r="C27" t="s">
-        <v>310</v>
-      </c>
-      <c r="D27" s="74">
-        <v>38301</v>
-      </c>
-      <c r="E27" s="69">
-        <v>51869</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>311</v>
-      </c>
-      <c r="B28" t="s">
-        <v>312</v>
-      </c>
-      <c r="C28" t="s">
-        <v>313</v>
-      </c>
-      <c r="D28" s="74">
-        <v>38053</v>
-      </c>
-      <c r="E28" s="69">
-        <v>32333</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>314</v>
-      </c>
-      <c r="B29" t="s">
-        <v>315</v>
-      </c>
-      <c r="C29" t="s">
-        <v>316</v>
-      </c>
-      <c r="D29" s="74">
-        <v>39015</v>
-      </c>
-      <c r="E29" s="69">
-        <v>56868</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>317</v>
-      </c>
-      <c r="B30" t="s">
-        <v>318</v>
-      </c>
-      <c r="C30" t="s">
-        <v>319</v>
-      </c>
-      <c r="D30" s="74">
-        <v>40033</v>
-      </c>
-      <c r="E30" s="69">
-        <v>31846</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>320</v>
-      </c>
-      <c r="B31" t="s">
-        <v>321</v>
-      </c>
-      <c r="C31" t="s">
-        <v>322</v>
-      </c>
-      <c r="D31" s="74">
-        <v>37990</v>
-      </c>
-      <c r="E31" s="69">
-        <v>45553</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>323</v>
-      </c>
-      <c r="B32" t="s">
-        <v>324</v>
-      </c>
-      <c r="C32" t="s">
-        <v>325</v>
-      </c>
-      <c r="D32" s="74">
-        <v>37743</v>
-      </c>
-      <c r="E32" s="69">
-        <v>37253</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>326</v>
-      </c>
-      <c r="B33" t="s">
-        <v>327</v>
-      </c>
-      <c r="C33" t="s">
-        <v>328</v>
-      </c>
-      <c r="D33" s="74">
-        <v>37940</v>
-      </c>
-      <c r="E33" s="69">
-        <v>53211</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>329</v>
-      </c>
-      <c r="B34" t="s">
-        <v>330</v>
-      </c>
-      <c r="C34" t="s">
-        <v>331</v>
-      </c>
-      <c r="D34" s="74">
-        <v>38433</v>
-      </c>
-      <c r="E34" s="69">
-        <v>44756</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>332</v>
-      </c>
-      <c r="B35" t="s">
-        <v>333</v>
-      </c>
-      <c r="C35" t="s">
-        <v>334</v>
-      </c>
-      <c r="D35" s="74">
-        <v>38088</v>
-      </c>
-      <c r="E35" s="69">
-        <v>52914</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>335</v>
-      </c>
-      <c r="B36" t="s">
-        <v>336</v>
-      </c>
-      <c r="C36" t="s">
-        <v>337</v>
-      </c>
-      <c r="D36" s="74">
-        <v>38056</v>
-      </c>
-      <c r="E36" s="69">
-        <v>38639</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>338</v>
-      </c>
-      <c r="B37" t="s">
-        <v>339</v>
-      </c>
-      <c r="C37" t="s">
-        <v>340</v>
-      </c>
-      <c r="D37" s="74">
-        <v>39647</v>
-      </c>
-      <c r="E37" s="69">
-        <v>39784</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>341</v>
-      </c>
-      <c r="B38" t="s">
-        <v>342</v>
-      </c>
-      <c r="C38" t="s">
-        <v>343</v>
-      </c>
-      <c r="D38" s="74">
-        <v>38235</v>
-      </c>
-      <c r="E38" s="69">
-        <v>47441</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>344</v>
-      </c>
-      <c r="B39" t="s">
-        <v>345</v>
-      </c>
-      <c r="C39" t="s">
-        <v>346</v>
-      </c>
-      <c r="D39" s="74">
-        <v>37944</v>
-      </c>
-      <c r="E39" s="69">
-        <v>29245</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>347</v>
-      </c>
-      <c r="B40" t="s">
-        <v>348</v>
-      </c>
-      <c r="C40" t="s">
-        <v>349</v>
-      </c>
-      <c r="D40" s="74">
-        <v>38601</v>
-      </c>
-      <c r="E40" s="69">
-        <v>50076</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>350</v>
-      </c>
-      <c r="B41" t="s">
-        <v>351</v>
-      </c>
-      <c r="C41" t="s">
-        <v>352</v>
-      </c>
-      <c r="D41" s="74">
-        <v>40253</v>
-      </c>
-      <c r="E41" s="69">
-        <v>55045</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>353</v>
-      </c>
-      <c r="B42" t="s">
-        <v>354</v>
-      </c>
-      <c r="C42" t="s">
-        <v>355</v>
-      </c>
-      <c r="D42" s="74">
-        <v>38153</v>
-      </c>
-      <c r="E42" s="69">
-        <v>48541</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>356</v>
-      </c>
-      <c r="B43" t="s">
-        <v>357</v>
-      </c>
-      <c r="C43" t="s">
-        <v>358</v>
-      </c>
-      <c r="D43" s="74">
-        <v>39446</v>
-      </c>
-      <c r="E43" s="69">
-        <v>58564</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>359</v>
-      </c>
-      <c r="B44" t="s">
-        <v>360</v>
-      </c>
-      <c r="C44" t="s">
-        <v>361</v>
-      </c>
-      <c r="D44" s="74">
-        <v>39914</v>
-      </c>
-      <c r="E44" s="69">
-        <v>39727</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>362</v>
-      </c>
-      <c r="B45" t="s">
-        <v>363</v>
-      </c>
-      <c r="C45" t="s">
-        <v>364</v>
-      </c>
-      <c r="D45" s="74">
-        <v>39882</v>
-      </c>
-      <c r="E45" s="69">
-        <v>36487</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>365</v>
-      </c>
-      <c r="B46" t="s">
-        <v>366</v>
-      </c>
-      <c r="C46" t="s">
-        <v>367</v>
-      </c>
-      <c r="D46" s="74">
-        <v>38964</v>
-      </c>
-      <c r="E46" s="69">
-        <v>40059</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>368</v>
-      </c>
-      <c r="B47" t="s">
-        <v>369</v>
-      </c>
-      <c r="C47" t="s">
-        <v>370</v>
-      </c>
-      <c r="D47" s="74">
-        <v>38713</v>
-      </c>
-      <c r="E47" s="69">
-        <v>53426</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>371</v>
-      </c>
-      <c r="B48" t="s">
-        <v>372</v>
-      </c>
-      <c r="C48" t="s">
-        <v>373</v>
-      </c>
-      <c r="D48" s="74">
-        <v>37092</v>
-      </c>
-      <c r="E48" s="69">
-        <v>29305</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>374</v>
-      </c>
-      <c r="B49" t="s">
-        <v>375</v>
-      </c>
-      <c r="C49" t="s">
-        <v>376</v>
-      </c>
-      <c r="D49" s="74">
-        <v>37582</v>
-      </c>
-      <c r="E49" s="69">
-        <v>58331</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>377</v>
-      </c>
-      <c r="B50" t="s">
-        <v>378</v>
-      </c>
-      <c r="C50" t="s">
-        <v>379</v>
-      </c>
-      <c r="D50" s="74">
-        <v>39725</v>
-      </c>
-      <c r="E50" s="69">
-        <v>29585</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>380</v>
-      </c>
-      <c r="B51" t="s">
-        <v>381</v>
-      </c>
-      <c r="C51" t="s">
-        <v>382</v>
-      </c>
-      <c r="D51" s="74">
-        <v>39142</v>
-      </c>
-      <c r="E51" s="69">
-        <v>33046</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>383</v>
-      </c>
-      <c r="B52" t="s">
-        <v>384</v>
-      </c>
-      <c r="C52" t="s">
-        <v>385</v>
-      </c>
-      <c r="D52" s="74">
-        <v>39083</v>
-      </c>
-      <c r="E52" s="69">
-        <v>45022</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>386</v>
-      </c>
-      <c r="B53" t="s">
-        <v>387</v>
-      </c>
-      <c r="C53" t="s">
-        <v>388</v>
-      </c>
-      <c r="D53" s="74">
-        <v>37144</v>
-      </c>
-      <c r="E53" s="69">
-        <v>46361</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>389</v>
-      </c>
-      <c r="B54" t="s">
-        <v>390</v>
-      </c>
-      <c r="C54" t="s">
-        <v>391</v>
-      </c>
-      <c r="D54" s="74">
-        <v>39089</v>
-      </c>
-      <c r="E54" s="69">
-        <v>53093</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>392</v>
-      </c>
-      <c r="B55" t="s">
-        <v>393</v>
-      </c>
-      <c r="C55" t="s">
-        <v>394</v>
-      </c>
-      <c r="D55" s="74">
-        <v>39593</v>
-      </c>
-      <c r="E55" s="69">
-        <v>57760</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>395</v>
-      </c>
-      <c r="B56" t="s">
-        <v>396</v>
-      </c>
-      <c r="C56" t="s">
-        <v>397</v>
-      </c>
-      <c r="D56" s="74">
-        <v>37188</v>
-      </c>
-      <c r="E56" s="69">
-        <v>50068</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>398</v>
-      </c>
-      <c r="B57" t="s">
-        <v>399</v>
-      </c>
-      <c r="C57" t="s">
-        <v>400</v>
-      </c>
-      <c r="D57" s="74">
-        <v>38622</v>
-      </c>
-      <c r="E57" s="69">
-        <v>34946</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>401</v>
-      </c>
-      <c r="B58" t="s">
-        <v>402</v>
-      </c>
-      <c r="C58" t="s">
-        <v>403</v>
-      </c>
-      <c r="D58" s="74">
-        <v>39961</v>
-      </c>
-      <c r="E58" s="69">
-        <v>47062</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B59" t="s">
-        <v>405</v>
-      </c>
-      <c r="C59" t="s">
-        <v>406</v>
-      </c>
-      <c r="D59" s="74">
-        <v>39460</v>
-      </c>
-      <c r="E59" s="69">
-        <v>36840</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>407</v>
-      </c>
-      <c r="B60" t="s">
-        <v>408</v>
-      </c>
-      <c r="C60" t="s">
-        <v>409</v>
-      </c>
-      <c r="D60" s="74">
-        <v>39900</v>
-      </c>
-      <c r="E60" s="69">
-        <v>56499</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>410</v>
-      </c>
-      <c r="B61" t="s">
-        <v>411</v>
-      </c>
-      <c r="C61" t="s">
-        <v>412</v>
-      </c>
-      <c r="D61" s="74">
-        <v>37257</v>
-      </c>
-      <c r="E61" s="69">
-        <v>30813</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>413</v>
-      </c>
-      <c r="B62" t="s">
-        <v>414</v>
-      </c>
-      <c r="C62" t="s">
-        <v>415</v>
-      </c>
-      <c r="D62" s="74">
-        <v>37052</v>
-      </c>
-      <c r="E62" s="69">
-        <v>46092</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>416</v>
-      </c>
-      <c r="B63" t="s">
-        <v>417</v>
-      </c>
-      <c r="C63" t="s">
-        <v>418</v>
-      </c>
-      <c r="D63" s="74">
-        <v>37404</v>
-      </c>
-      <c r="E63" s="69">
-        <v>33192</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>419</v>
-      </c>
-      <c r="B64" t="s">
-        <v>420</v>
-      </c>
-      <c r="C64" t="s">
-        <v>421</v>
-      </c>
-      <c r="D64" s="74">
-        <v>38564</v>
-      </c>
-      <c r="E64" s="69">
-        <v>41632</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>422</v>
-      </c>
-      <c r="B65" t="s">
-        <v>423</v>
-      </c>
-      <c r="C65" t="s">
-        <v>424</v>
-      </c>
-      <c r="D65" s="74">
-        <v>39459</v>
-      </c>
-      <c r="E65" s="69">
-        <v>37236</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>425</v>
-      </c>
-      <c r="B66" t="s">
-        <v>426</v>
-      </c>
-      <c r="C66" t="s">
-        <v>427</v>
-      </c>
-      <c r="D66" s="74">
-        <v>38301</v>
-      </c>
-      <c r="E66" s="69">
-        <v>58741</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>428</v>
-      </c>
-      <c r="B67" t="s">
-        <v>429</v>
-      </c>
-      <c r="C67" t="s">
-        <v>430</v>
-      </c>
-      <c r="D67" s="74">
-        <v>38450</v>
-      </c>
-      <c r="E67" s="69">
-        <v>40138</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>431</v>
-      </c>
-      <c r="B68" t="s">
-        <v>432</v>
-      </c>
-      <c r="C68" t="s">
-        <v>433</v>
-      </c>
-      <c r="D68" s="74">
-        <v>38590</v>
-      </c>
-      <c r="E68" s="69">
-        <v>42648</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>434</v>
-      </c>
-      <c r="B69" t="s">
-        <v>435</v>
-      </c>
-      <c r="C69" t="s">
-        <v>436</v>
-      </c>
-      <c r="D69" s="74">
-        <v>38705</v>
-      </c>
-      <c r="E69" s="69">
-        <v>40470</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>437</v>
-      </c>
-      <c r="B70" t="s">
-        <v>438</v>
-      </c>
-      <c r="C70" t="s">
-        <v>439</v>
-      </c>
-      <c r="D70" s="74">
-        <v>38375</v>
-      </c>
-      <c r="E70" s="69">
-        <v>55414</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>440</v>
-      </c>
-      <c r="B71" t="s">
-        <v>441</v>
-      </c>
-      <c r="C71" t="s">
-        <v>442</v>
-      </c>
-      <c r="D71" s="74">
-        <v>37608</v>
-      </c>
-      <c r="E71" s="69">
-        <v>37570</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>443</v>
-      </c>
-      <c r="B72" t="s">
-        <v>444</v>
-      </c>
-      <c r="C72" t="s">
-        <v>445</v>
-      </c>
-      <c r="D72" s="74">
-        <v>40103</v>
-      </c>
-      <c r="E72" s="69">
-        <v>37093</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>446</v>
-      </c>
-      <c r="B73" t="s">
-        <v>447</v>
-      </c>
-      <c r="C73" t="s">
-        <v>448</v>
-      </c>
-      <c r="D73" s="74">
-        <v>38565</v>
-      </c>
-      <c r="E73" s="69">
-        <v>49595</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>449</v>
-      </c>
-      <c r="B74" t="s">
-        <v>450</v>
-      </c>
-      <c r="C74" t="s">
-        <v>451</v>
-      </c>
-      <c r="D74" s="74">
-        <v>39274</v>
-      </c>
-      <c r="E74" s="69">
-        <v>34085</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>452</v>
-      </c>
-      <c r="B75" t="s">
-        <v>453</v>
-      </c>
-      <c r="C75" t="s">
-        <v>454</v>
-      </c>
-      <c r="D75" s="74">
-        <v>38712</v>
-      </c>
-      <c r="E75" s="69">
-        <v>53954</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>455</v>
-      </c>
-      <c r="B76" t="s">
-        <v>456</v>
-      </c>
-      <c r="C76" t="s">
-        <v>457</v>
-      </c>
-      <c r="D76" s="74">
-        <v>39000</v>
-      </c>
-      <c r="E76" s="69">
-        <v>47233</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>458</v>
-      </c>
-      <c r="B77" t="s">
-        <v>459</v>
-      </c>
-      <c r="C77" t="s">
-        <v>460</v>
-      </c>
-      <c r="D77" s="74">
-        <v>39277</v>
-      </c>
-      <c r="E77" s="69">
-        <v>51492</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>461</v>
-      </c>
-      <c r="B78" t="s">
-        <v>462</v>
-      </c>
-      <c r="C78" t="s">
-        <v>463</v>
-      </c>
-      <c r="D78" s="74">
-        <v>40127</v>
-      </c>
-      <c r="E78" s="69">
-        <v>38646</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>464</v>
-      </c>
-      <c r="B79" t="s">
-        <v>465</v>
-      </c>
-      <c r="C79" t="s">
-        <v>466</v>
-      </c>
-      <c r="D79" s="74">
-        <v>37353</v>
-      </c>
-      <c r="E79" s="69">
-        <v>33528</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>467</v>
-      </c>
-      <c r="B80" t="s">
-        <v>468</v>
-      </c>
-      <c r="C80" t="s">
-        <v>469</v>
-      </c>
-      <c r="D80" s="74">
-        <v>37162</v>
-      </c>
-      <c r="E80" s="69">
-        <v>36251</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>470</v>
-      </c>
-      <c r="B81" t="s">
-        <v>471</v>
-      </c>
-      <c r="C81" t="s">
-        <v>472</v>
-      </c>
-      <c r="D81" s="74">
-        <v>38974</v>
-      </c>
-      <c r="E81" s="69">
-        <v>48782</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>473</v>
-      </c>
-      <c r="B82" t="s">
-        <v>474</v>
-      </c>
-      <c r="C82" t="s">
-        <v>475</v>
-      </c>
-      <c r="D82" s="74">
-        <v>38110</v>
-      </c>
-      <c r="E82" s="69">
-        <v>35037</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>476</v>
-      </c>
-      <c r="B83" t="s">
-        <v>477</v>
-      </c>
-      <c r="C83" t="s">
-        <v>478</v>
-      </c>
-      <c r="D83" s="74">
-        <v>39428</v>
-      </c>
-      <c r="E83" s="69">
-        <v>42336</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>479</v>
-      </c>
-      <c r="B84" t="s">
-        <v>480</v>
-      </c>
-      <c r="C84" t="s">
-        <v>481</v>
-      </c>
-      <c r="D84" s="74">
-        <v>38682</v>
-      </c>
-      <c r="E84" s="69">
-        <v>31082</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>482</v>
-      </c>
-      <c r="B85" t="s">
-        <v>483</v>
-      </c>
-      <c r="C85" t="s">
-        <v>484</v>
-      </c>
-      <c r="D85" s="74">
-        <v>38933</v>
-      </c>
-      <c r="E85" s="69">
-        <v>38708</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>485</v>
-      </c>
-      <c r="B86" t="s">
-        <v>486</v>
-      </c>
-      <c r="C86" t="s">
-        <v>487</v>
-      </c>
-      <c r="D86" s="74">
-        <v>40117</v>
-      </c>
-      <c r="E86" s="69">
-        <v>47936</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>488</v>
-      </c>
-      <c r="B87" t="s">
-        <v>489</v>
-      </c>
-      <c r="C87" t="s">
-        <v>490</v>
-      </c>
-      <c r="D87" s="74">
-        <v>38645</v>
-      </c>
-      <c r="E87" s="69">
-        <v>35066</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>491</v>
-      </c>
-      <c r="B88" t="s">
-        <v>492</v>
-      </c>
-      <c r="C88" t="s">
-        <v>493</v>
-      </c>
-      <c r="D88" s="74">
-        <v>38293</v>
-      </c>
-      <c r="E88" s="69">
-        <v>46057</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>494</v>
-      </c>
-      <c r="B89" t="s">
-        <v>495</v>
-      </c>
-      <c r="C89" t="s">
-        <v>496</v>
-      </c>
-      <c r="D89" s="74">
-        <v>38570</v>
-      </c>
-      <c r="E89" s="69">
-        <v>37358</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>497</v>
-      </c>
-      <c r="B90" t="s">
-        <v>498</v>
-      </c>
-      <c r="C90" t="s">
-        <v>499</v>
-      </c>
-      <c r="D90" s="74">
-        <v>39141</v>
-      </c>
-      <c r="E90" s="69">
-        <v>50486</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:AE90"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="str">
-        <f>"In cell "&amp;ADDRESS(ROW(A4),COLUMN(A4),4)&amp;" add a drop-down list for "&amp;A3&amp;". Then in range "&amp;ADDRESS(ROW(B4),COLUMN(B4),4)&amp;":"&amp;ADDRESS(ROW(E4),COLUMN(E4),4)&amp;" create a formula that will retrieve the employee data from the table below."</f>
-        <v>In cell A4 add a drop-down list for Employee ID. Then in range B4:E4 create a formula that will retrieve the employee data from the table below.</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="AA1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="AA2" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="AE2" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA3" t="str">
-        <f ca="1">CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;"-"&amp;RANDBETWEEN(1000,9999)&amp;"-"&amp;TEXT(ROWS(AA$2:AA3),"0000")</f>
-        <v>IGDY-2565-0002</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>247</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>248</v>
-      </c>
-      <c r="AD3" s="74">
-        <f t="shared" ref="AD3" ca="1" si="0">RANDBETWEEN(37000,40300)</f>
-        <v>40259</v>
-      </c>
-      <c r="AE3" s="69">
-        <f ca="1">RANDBETWEEN(29000,59000)</f>
-        <v>37836</v>
+        <v>33692</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -11756,8 +11897,8 @@
   </sheetPr>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView zoomScale="132" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11843,8 +11984,14 @@
       <c r="H5" s="79">
         <v>60.93</v>
       </c>
-      <c r="I5" s="80"/>
-      <c r="J5" s="8"/>
+      <c r="I5" s="80">
+        <f>MIN(B5:H5)</f>
+        <v>39.01</v>
+      </c>
+      <c r="J5" s="8" t="str">
+        <f>INDEX($B$4:$H$4,MATCH(I5,B5:H5,0))</f>
+        <v>Supplier 3</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="78" t="s">
@@ -11871,8 +12018,14 @@
       <c r="H6" s="79">
         <v>51.64</v>
       </c>
-      <c r="I6" s="80"/>
-      <c r="J6" s="8"/>
+      <c r="I6" s="80">
+        <f t="shared" ref="I6:I21" si="0">MIN(B6:H6)</f>
+        <v>29.87</v>
+      </c>
+      <c r="J6" s="8" t="str">
+        <f t="shared" ref="J6:J21" si="1">INDEX($B$4:$H$4,MATCH(I6,B6:H6,0))</f>
+        <v>Supplier 2</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="78" t="s">
@@ -11899,8 +12052,14 @@
       <c r="H7" s="79">
         <v>64.55</v>
       </c>
-      <c r="I7" s="80"/>
-      <c r="J7" s="8"/>
+      <c r="I7" s="80">
+        <f t="shared" si="0"/>
+        <v>28.81</v>
+      </c>
+      <c r="J7" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Supplier 5</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="78" t="s">
@@ -11927,8 +12086,14 @@
       <c r="H8" s="79">
         <v>48.59</v>
       </c>
-      <c r="I8" s="80"/>
-      <c r="J8" s="8"/>
+      <c r="I8" s="80">
+        <f t="shared" si="0"/>
+        <v>29.69</v>
+      </c>
+      <c r="J8" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Supplier 5</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="78" t="s">
@@ -11955,8 +12120,14 @@
       <c r="H9" s="79">
         <v>43</v>
       </c>
-      <c r="I9" s="80"/>
-      <c r="J9" s="8"/>
+      <c r="I9" s="80">
+        <f t="shared" si="0"/>
+        <v>32.44</v>
+      </c>
+      <c r="J9" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Supplier 2</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="78" t="s">
@@ -11983,8 +12154,14 @@
       <c r="H10" s="79">
         <v>73.069999999999993</v>
       </c>
-      <c r="I10" s="80"/>
-      <c r="J10" s="8"/>
+      <c r="I10" s="80">
+        <f t="shared" si="0"/>
+        <v>26.32</v>
+      </c>
+      <c r="J10" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Supplier 3</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="78" t="s">
@@ -12011,8 +12188,14 @@
       <c r="H11" s="79">
         <v>56.33</v>
       </c>
-      <c r="I11" s="80"/>
-      <c r="J11" s="8"/>
+      <c r="I11" s="80">
+        <f t="shared" si="0"/>
+        <v>28.11</v>
+      </c>
+      <c r="J11" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Supplier 5</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="78" t="s">
@@ -12039,8 +12222,14 @@
       <c r="H12" s="79">
         <v>67.209999999999994</v>
       </c>
-      <c r="I12" s="80"/>
-      <c r="J12" s="8"/>
+      <c r="I12" s="80">
+        <f t="shared" si="0"/>
+        <v>39.22</v>
+      </c>
+      <c r="J12" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Supplier 5</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="78" t="s">
@@ -12067,8 +12256,14 @@
       <c r="H13" s="79">
         <v>48.83</v>
       </c>
-      <c r="I13" s="80"/>
-      <c r="J13" s="8"/>
+      <c r="I13" s="80">
+        <f t="shared" si="0"/>
+        <v>47.16</v>
+      </c>
+      <c r="J13" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Supplier 5</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="78" t="s">
@@ -12095,8 +12290,14 @@
       <c r="H14" s="79">
         <v>30.49</v>
       </c>
-      <c r="I14" s="80"/>
-      <c r="J14" s="8"/>
+      <c r="I14" s="80">
+        <f t="shared" si="0"/>
+        <v>26.44</v>
+      </c>
+      <c r="J14" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Supplier 6</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="78" t="s">
@@ -12123,8 +12324,14 @@
       <c r="H15" s="79">
         <v>65.290000000000006</v>
       </c>
-      <c r="I15" s="80"/>
-      <c r="J15" s="8"/>
+      <c r="I15" s="80">
+        <f t="shared" si="0"/>
+        <v>39.92</v>
+      </c>
+      <c r="J15" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Supplier 1</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="78" t="s">
@@ -12151,8 +12358,14 @@
       <c r="H16" s="79">
         <v>44.78</v>
       </c>
-      <c r="I16" s="80"/>
-      <c r="J16" s="8"/>
+      <c r="I16" s="80">
+        <f t="shared" si="0"/>
+        <v>30.53</v>
+      </c>
+      <c r="J16" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Supplier 4</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="78" t="s">
@@ -12179,8 +12392,14 @@
       <c r="H17" s="79">
         <v>34.57</v>
       </c>
-      <c r="I17" s="80"/>
-      <c r="J17" s="8"/>
+      <c r="I17" s="80">
+        <f t="shared" si="0"/>
+        <v>34.57</v>
+      </c>
+      <c r="J17" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Supplier 7</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="78" t="s">
@@ -12207,8 +12426,14 @@
       <c r="H18" s="79">
         <v>26.93</v>
       </c>
-      <c r="I18" s="80"/>
-      <c r="J18" s="8"/>
+      <c r="I18" s="80">
+        <f t="shared" si="0"/>
+        <v>26.93</v>
+      </c>
+      <c r="J18" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Supplier 7</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="78" t="s">
@@ -12235,8 +12460,14 @@
       <c r="H19" s="79">
         <v>58.85</v>
       </c>
-      <c r="I19" s="80"/>
-      <c r="J19" s="8"/>
+      <c r="I19" s="80">
+        <f t="shared" si="0"/>
+        <v>27.49</v>
+      </c>
+      <c r="J19" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Supplier 6</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="78" t="s">
@@ -12263,8 +12494,14 @@
       <c r="H20" s="79">
         <v>46.65</v>
       </c>
-      <c r="I20" s="80"/>
-      <c r="J20" s="8"/>
+      <c r="I20" s="80">
+        <f t="shared" si="0"/>
+        <v>32.81</v>
+      </c>
+      <c r="J20" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Supplier 5</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="78" t="s">
@@ -12291,8 +12528,14 @@
       <c r="H21" s="79">
         <v>36.049999999999997</v>
       </c>
-      <c r="I21" s="80"/>
-      <c r="J21" s="8"/>
+      <c r="I21" s="80">
+        <f t="shared" si="0"/>
+        <v>36.049999999999997</v>
+      </c>
+      <c r="J21" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Supplier 7</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:H21">
@@ -12309,8 +12552,8 @@
   </sheetPr>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13040,8 +13283,8 @@
   </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13093,7 +13336,10 @@
       <c r="C6" s="6">
         <v>131.07</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="8" t="e">
+        <f>HLOOKUP(B6,$H$7:$I$9,MATCH(B6,H7:H9))</f>
+        <v>#N/A</v>
+      </c>
       <c r="H6" s="36" t="s">
         <v>531</v>
       </c>
@@ -13215,6 +13461,10 @@
         <v>153.51</v>
       </c>
       <c r="D14" s="8"/>
+      <c r="H14" t="e">
+        <f>INDEX($B$4:$H$4,MATCH(I5,B5:H5,0))</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
@@ -13348,7 +13598,7 @@
   </sheetPr>
   <dimension ref="A1:J290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
+    <sheetView topLeftCell="A283" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
       <selection activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>

--- a/Busn218-Video11_edit.xlsx
+++ b/Busn218-Video11_edit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galvanize/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galvanize/Documents/excel/vlookups/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB2993A-F70D-6D4C-BBF5-D6F223F8DE52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD851E3-4299-B24C-946F-D380826478A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="4" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" firstSheet="4" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="25" r:id="rId1"/>
@@ -8496,7 +8496,7 @@
       </c>
       <c r="AA3" t="str">
         <f ca="1">CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;"-"&amp;RANDBETWEEN(1000,9999)&amp;"-"&amp;TEXT(ROWS(AA$2:AA3),"0000")</f>
-        <v>CIZV-3821-0002</v>
+        <v>QVFO-8467-0002</v>
       </c>
       <c r="AB3" t="s">
         <v>247</v>
@@ -8506,11 +8506,11 @@
       </c>
       <c r="AD3" s="74">
         <f t="shared" ref="AD3" ca="1" si="0">RANDBETWEEN(37000,40300)</f>
-        <v>39011</v>
+        <v>38803</v>
       </c>
       <c r="AE3" s="69">
         <f ca="1">RANDBETWEEN(29000,59000)</f>
-        <v>51183</v>
+        <v>44201</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -10210,7 +10210,7 @@
       </c>
       <c r="AA3" t="str">
         <f ca="1">CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;"-"&amp;RANDBETWEEN(1000,9999)&amp;"-"&amp;TEXT(ROWS(AA$2:AA3),"0000")</f>
-        <v>RUWD-8305-0002</v>
+        <v>TLNT-5384-0002</v>
       </c>
       <c r="AB3" t="s">
         <v>247</v>
@@ -10220,11 +10220,11 @@
       </c>
       <c r="AD3" s="74">
         <f t="shared" ref="AD3" ca="1" si="0">RANDBETWEEN(37000,40300)</f>
-        <v>38140</v>
+        <v>37221</v>
       </c>
       <c r="AE3" s="69">
         <f ca="1">RANDBETWEEN(29000,59000)</f>
-        <v>33692</v>
+        <v>42169</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -13284,7 +13284,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D6" sqref="D6:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13336,9 +13336,9 @@
       <c r="C6" s="6">
         <v>131.07</v>
       </c>
-      <c r="D6" s="8" t="e">
-        <f>HLOOKUP(B6,$H$7:$I$9,MATCH(B6,H7:H9))</f>
-        <v>#N/A</v>
+      <c r="D6" s="8" t="str">
+        <f>INDEX($I$7:$I$9, MATCH(B6, $H$7:$H$9,0))</f>
+        <v>OUTDOOR-1570</v>
       </c>
       <c r="H6" s="36" t="s">
         <v>531</v>
@@ -13358,7 +13358,10 @@
       <c r="C7" s="6">
         <v>159.47999999999999</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="8" t="str">
+        <f t="shared" ref="D7:D24" si="0">INDEX($I$7:$I$9, MATCH(B7, $H$7:$H$9,0))</f>
+        <v>OUTDOOR-1570</v>
+      </c>
       <c r="H7" s="5" t="s">
         <v>532</v>
       </c>
@@ -13376,7 +13379,10 @@
       <c r="C8" s="6">
         <v>84.98</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>SPORT-1876</v>
+      </c>
       <c r="H8" s="5" t="s">
         <v>534</v>
       </c>
@@ -13394,7 +13400,10 @@
       <c r="C9" s="6">
         <v>85.33</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>OUTDOOR-1570</v>
+      </c>
       <c r="H9" s="5" t="s">
         <v>530</v>
       </c>
@@ -13412,7 +13421,10 @@
       <c r="C10" s="6">
         <v>109.55</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>SPORT-1876</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
@@ -13424,7 +13436,10 @@
       <c r="C11" s="6">
         <v>151.96</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>RAD-1084</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
@@ -13436,7 +13451,10 @@
       <c r="C12" s="6">
         <v>87.65</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>RAD-1084</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
@@ -13448,7 +13466,10 @@
       <c r="C13" s="6">
         <v>135.76</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>SPORT-1876</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
@@ -13460,10 +13481,9 @@
       <c r="C14" s="6">
         <v>153.51</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="H14" t="e">
-        <f>INDEX($B$4:$H$4,MATCH(I5,B5:H5,0))</f>
-        <v>#N/A</v>
+      <c r="D14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>RAD-1084</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -13476,7 +13496,10 @@
       <c r="C15" s="6">
         <v>113.04</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>RAD-1084</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
@@ -13488,7 +13511,10 @@
       <c r="C16" s="6">
         <v>138.41999999999999</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>SPORT-1876</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
@@ -13500,7 +13526,10 @@
       <c r="C17" s="6">
         <v>154.69</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>RAD-1084</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
@@ -13512,7 +13541,10 @@
       <c r="C18" s="6">
         <v>145.99</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="D18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>OUTDOOR-1570</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
@@ -13524,7 +13556,10 @@
       <c r="C19" s="6">
         <v>97.45</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="D19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>OUTDOOR-1570</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
@@ -13536,7 +13571,10 @@
       <c r="C20" s="6">
         <v>130.43</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>OUTDOOR-1570</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
@@ -13548,7 +13586,10 @@
       <c r="C21" s="6">
         <v>118.56</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>OUTDOOR-1570</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
@@ -13560,7 +13601,10 @@
       <c r="C22" s="6">
         <v>127.48</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>OUTDOOR-1570</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
@@ -13572,7 +13616,10 @@
       <c r="C23" s="6">
         <v>95.27</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="D23" s="8" t="str">
+        <f>INDEX($I$7:$I$9, MATCH(B23, $H$7:$H$9,0))</f>
+        <v>OUTDOOR-1570</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
@@ -13584,7 +13631,10 @@
       <c r="C24" s="6">
         <v>146.35</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>SPORT-1876</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Busn218-Video11_edit.xlsx
+++ b/Busn218-Video11_edit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galvanize/Documents/excel/vlookups/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD851E3-4299-B24C-946F-D380826478A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D292E1E-1B6A-EC47-B8AD-CD960098C2D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" firstSheet="4" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" firstSheet="6" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="25" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2540" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2541" uniqueCount="848">
   <si>
     <t>Boomerang</t>
   </si>
@@ -3771,6 +3771,9 @@
   </si>
   <si>
     <t>How to use VLOOKUP, LEFT and SEARCH to do a "Partial Text Lookup. Goal: Lookup Product Price. Also: Look at Data Mismatch in lookup formulas.</t>
+  </si>
+  <si>
+    <t>w/Vlookup</t>
   </si>
 </sst>
 </file>
@@ -4177,7 +4180,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4358,6 +4361,12 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="4" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
@@ -8496,7 +8505,7 @@
       </c>
       <c r="AA3" t="str">
         <f ca="1">CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;"-"&amp;RANDBETWEEN(1000,9999)&amp;"-"&amp;TEXT(ROWS(AA$2:AA3),"0000")</f>
-        <v>QVFO-8467-0002</v>
+        <v>WUJR-4958-0002</v>
       </c>
       <c r="AB3" t="s">
         <v>247</v>
@@ -8506,11 +8515,11 @@
       </c>
       <c r="AD3" s="74">
         <f t="shared" ref="AD3" ca="1" si="0">RANDBETWEEN(37000,40300)</f>
-        <v>38803</v>
+        <v>39984</v>
       </c>
       <c r="AE3" s="69">
         <f ca="1">RANDBETWEEN(29000,59000)</f>
-        <v>44201</v>
+        <v>58468</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -10210,7 +10219,7 @@
       </c>
       <c r="AA3" t="str">
         <f ca="1">CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;"-"&amp;RANDBETWEEN(1000,9999)&amp;"-"&amp;TEXT(ROWS(AA$2:AA3),"0000")</f>
-        <v>TLNT-5384-0002</v>
+        <v>MHXT-8124-0002</v>
       </c>
       <c r="AB3" t="s">
         <v>247</v>
@@ -10220,11 +10229,11 @@
       </c>
       <c r="AD3" s="74">
         <f t="shared" ref="AD3" ca="1" si="0">RANDBETWEEN(37000,40300)</f>
-        <v>37221</v>
+        <v>39849</v>
       </c>
       <c r="AE3" s="69">
         <f ca="1">RANDBETWEEN(29000,59000)</f>
-        <v>42169</v>
+        <v>34600</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -13283,8 +13292,8 @@
   </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D24"/>
+    <sheetView topLeftCell="A3" zoomScale="161" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13292,6 +13301,7 @@
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -13323,6 +13333,9 @@
       <c r="D5" s="4" t="s">
         <v>529</v>
       </c>
+      <c r="E5" s="123" t="s">
+        <v>847</v>
+      </c>
       <c r="H5" s="36"/>
       <c r="I5" s="36"/>
     </row>
@@ -13340,6 +13353,10 @@
         <f>INDEX($I$7:$I$9, MATCH(B6, $H$7:$H$9,0))</f>
         <v>OUTDOOR-1570</v>
       </c>
+      <c r="E6" t="str">
+        <f>VLOOKUP(B6, $H$7:$I$9, 2, 0)</f>
+        <v>OUTDOOR-1570</v>
+      </c>
       <c r="H6" s="36" t="s">
         <v>531</v>
       </c>
@@ -13362,6 +13379,10 @@
         <f t="shared" ref="D7:D24" si="0">INDEX($I$7:$I$9, MATCH(B7, $H$7:$H$9,0))</f>
         <v>OUTDOOR-1570</v>
       </c>
+      <c r="E7" t="str">
+        <f t="shared" ref="E7:E24" si="1">VLOOKUP(B7, $H$7:$I$9, 2, 0)</f>
+        <v>OUTDOOR-1570</v>
+      </c>
       <c r="H7" s="5" t="s">
         <v>532</v>
       </c>
@@ -13383,6 +13404,10 @@
         <f t="shared" si="0"/>
         <v>SPORT-1876</v>
       </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>SPORT-1876</v>
+      </c>
       <c r="H8" s="5" t="s">
         <v>534</v>
       </c>
@@ -13404,6 +13429,10 @@
         <f t="shared" si="0"/>
         <v>OUTDOOR-1570</v>
       </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>OUTDOOR-1570</v>
+      </c>
       <c r="H9" s="5" t="s">
         <v>530</v>
       </c>
@@ -13425,6 +13454,10 @@
         <f t="shared" si="0"/>
         <v>SPORT-1876</v>
       </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>SPORT-1876</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
@@ -13440,6 +13473,10 @@
         <f t="shared" si="0"/>
         <v>RAD-1084</v>
       </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>RAD-1084</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
@@ -13455,6 +13492,10 @@
         <f t="shared" si="0"/>
         <v>RAD-1084</v>
       </c>
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>RAD-1084</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
@@ -13470,6 +13511,10 @@
         <f t="shared" si="0"/>
         <v>SPORT-1876</v>
       </c>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>SPORT-1876</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
@@ -13485,6 +13530,10 @@
         <f t="shared" si="0"/>
         <v>RAD-1084</v>
       </c>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>RAD-1084</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
@@ -13500,6 +13549,10 @@
         <f t="shared" si="0"/>
         <v>RAD-1084</v>
       </c>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>RAD-1084</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
@@ -13515,8 +13568,12 @@
         <f t="shared" si="0"/>
         <v>SPORT-1876</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v>SPORT-1876</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>40325</v>
       </c>
@@ -13530,8 +13587,12 @@
         <f t="shared" si="0"/>
         <v>RAD-1084</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" t="str">
+        <f>VLOOKUP(B17, $H$7:$I$9, 2, 0)</f>
+        <v>RAD-1084</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>40326</v>
       </c>
@@ -13545,8 +13606,12 @@
         <f t="shared" si="0"/>
         <v>OUTDOOR-1570</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v>OUTDOOR-1570</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>40327</v>
       </c>
@@ -13560,8 +13625,12 @@
         <f t="shared" si="0"/>
         <v>OUTDOOR-1570</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v>OUTDOOR-1570</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>40328</v>
       </c>
@@ -13575,8 +13644,12 @@
         <f t="shared" si="0"/>
         <v>OUTDOOR-1570</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" t="str">
+        <f t="shared" si="1"/>
+        <v>OUTDOOR-1570</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>40329</v>
       </c>
@@ -13590,8 +13663,12 @@
         <f t="shared" si="0"/>
         <v>OUTDOOR-1570</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" t="str">
+        <f t="shared" si="1"/>
+        <v>OUTDOOR-1570</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>40330</v>
       </c>
@@ -13605,8 +13682,12 @@
         <f t="shared" si="0"/>
         <v>OUTDOOR-1570</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" t="str">
+        <f t="shared" si="1"/>
+        <v>OUTDOOR-1570</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>40331</v>
       </c>
@@ -13620,8 +13701,12 @@
         <f>INDEX($I$7:$I$9, MATCH(B23, $H$7:$H$9,0))</f>
         <v>OUTDOOR-1570</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" t="str">
+        <f t="shared" si="1"/>
+        <v>OUTDOOR-1570</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>40332</v>
       </c>
@@ -13633,6 +13718,10 @@
       </c>
       <c r="D24" s="8" t="str">
         <f t="shared" si="0"/>
+        <v>SPORT-1876</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="1"/>
         <v>SPORT-1876</v>
       </c>
     </row>
@@ -16631,8 +16720,8 @@
   </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView zoomScale="141" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16996,8 +17085,8 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17058,8 +17147,14 @@
         <v>539</v>
       </c>
       <c r="F3" s="5"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="16"/>
+      <c r="G3" s="132" t="str">
+        <f>INDEX(A3:A8, MATCH($E$3,$C$3:$C$8,0))</f>
+        <v>Quad</v>
+      </c>
+      <c r="H3" s="133">
+        <f>INDEX(B3:B8, MATCH($E$3,$C$3:$C$8,0))</f>
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">

--- a/Busn218-Video11_edit.xlsx
+++ b/Busn218-Video11_edit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galvanize/Documents/excel/vlookups/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D292E1E-1B6A-EC47-B8AD-CD960098C2D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD57B33-A557-4140-BAAE-41AB0EA8F694}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" firstSheet="6" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" firstSheet="9" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="25" r:id="rId1"/>
@@ -8505,7 +8505,7 @@
       </c>
       <c r="AA3" t="str">
         <f ca="1">CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;"-"&amp;RANDBETWEEN(1000,9999)&amp;"-"&amp;TEXT(ROWS(AA$2:AA3),"0000")</f>
-        <v>WUJR-4958-0002</v>
+        <v>YVUF-2748-0002</v>
       </c>
       <c r="AB3" t="s">
         <v>247</v>
@@ -8515,11 +8515,11 @@
       </c>
       <c r="AD3" s="74">
         <f t="shared" ref="AD3" ca="1" si="0">RANDBETWEEN(37000,40300)</f>
-        <v>39984</v>
+        <v>39868</v>
       </c>
       <c r="AE3" s="69">
         <f ca="1">RANDBETWEEN(29000,59000)</f>
-        <v>58468</v>
+        <v>45088</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -10219,7 +10219,7 @@
       </c>
       <c r="AA3" t="str">
         <f ca="1">CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;"-"&amp;RANDBETWEEN(1000,9999)&amp;"-"&amp;TEXT(ROWS(AA$2:AA3),"0000")</f>
-        <v>MHXT-8124-0002</v>
+        <v>YJGC-9193-0002</v>
       </c>
       <c r="AB3" t="s">
         <v>247</v>
@@ -10229,11 +10229,11 @@
       </c>
       <c r="AD3" s="74">
         <f t="shared" ref="AD3" ca="1" si="0">RANDBETWEEN(37000,40300)</f>
-        <v>39849</v>
+        <v>37456</v>
       </c>
       <c r="AE3" s="69">
         <f ca="1">RANDBETWEEN(29000,59000)</f>
-        <v>34600</v>
+        <v>38613</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -17085,7 +17085,7 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
+    <sheetView zoomScale="131" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -17229,7 +17229,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17371,8 +17371,8 @@
   </sheetPr>
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17447,7 +17447,10 @@
       <c r="E4" s="90" t="s">
         <v>551</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="8">
+        <f>IF(D4="ProductLine1",INDEX($I$4:$I$7,MATCH(C4,$H$4:$H$7,0)),INDEX($L$4:$L$7,MATCH(C4,$K$4:$K$7,0)))</f>
+        <v>125</v>
+      </c>
       <c r="H4" s="5" t="s">
         <v>552</v>
       </c>
@@ -17477,7 +17480,10 @@
       <c r="E5" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="8">
+        <f t="shared" ref="F5:F24" si="0">IF(D5="ProductLine1",INDEX($I$4:$I$7,MATCH(C5,$H$4:$H$7,0)),INDEX($L$4:$L$7,MATCH(C5,$K$4:$K$7,0)))</f>
+        <v>125</v>
+      </c>
       <c r="H5" s="5" t="s">
         <v>555</v>
       </c>
@@ -17507,7 +17513,10 @@
       <c r="E6" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="8">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
       <c r="H6" s="5" t="s">
         <v>549</v>
       </c>
@@ -17537,7 +17546,10 @@
       <c r="E7" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
       <c r="H7" s="5" t="s">
         <v>557</v>
       </c>
@@ -17567,7 +17579,10 @@
       <c r="E8" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="8">
+        <f t="shared" si="0"/>
+        <v>2.75E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
@@ -17585,7 +17600,10 @@
       <c r="E9" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
@@ -17603,7 +17621,10 @@
       <c r="E10" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="8">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
@@ -17621,7 +17642,10 @@
       <c r="E11" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="8">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
@@ -17639,7 +17663,10 @@
       <c r="E12" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="8">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
@@ -17657,7 +17684,10 @@
       <c r="E13" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="8">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
@@ -17675,7 +17705,10 @@
       <c r="E14" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="8">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
@@ -17693,7 +17726,10 @@
       <c r="E15" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="F15" s="8"/>
+      <c r="F15" s="8">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
@@ -17711,7 +17747,10 @@
       <c r="E16" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="8">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
@@ -17729,7 +17768,10 @@
       <c r="E17" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="8">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
@@ -17747,7 +17789,10 @@
       <c r="E18" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="F18" s="8"/>
+      <c r="F18" s="8">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
@@ -17765,7 +17810,10 @@
       <c r="E19" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
@@ -17783,7 +17831,10 @@
       <c r="E20" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="F20" s="8"/>
+      <c r="F20" s="8">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
@@ -17801,7 +17852,10 @@
       <c r="E21" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="F21" s="8"/>
+      <c r="F21" s="8">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
@@ -17819,7 +17873,10 @@
       <c r="E22" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="8">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
@@ -17837,7 +17894,10 @@
       <c r="E23" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="F23" s="8"/>
+      <c r="F23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
@@ -17855,7 +17915,10 @@
       <c r="E24" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="F24" s="8"/>
+      <c r="F24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E25" s="91"/>
@@ -17873,7 +17936,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Busn218-Video11_edit.xlsx
+++ b/Busn218-Video11_edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galvanize/Documents/excel/vlookups/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD57B33-A557-4140-BAAE-41AB0EA8F694}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8815C9-5DF3-FA47-BF0B-BA42C45C601F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" firstSheet="9" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2541" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2542" uniqueCount="849">
   <si>
     <t>Boomerang</t>
   </si>
@@ -3774,6 +3774,9 @@
   </si>
   <si>
     <t>w/Vlookup</t>
+  </si>
+  <si>
+    <t>w/ Vlookup</t>
   </si>
 </sst>
 </file>
@@ -4180,7 +4183,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4369,6 +4372,7 @@
     <xf numFmtId="167" fontId="0" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Currency" xfId="4" builtinId="4"/>
@@ -8505,7 +8509,7 @@
       </c>
       <c r="AA3" t="str">
         <f ca="1">CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;"-"&amp;RANDBETWEEN(1000,9999)&amp;"-"&amp;TEXT(ROWS(AA$2:AA3),"0000")</f>
-        <v>YVUF-2748-0002</v>
+        <v>URXP-4907-0002</v>
       </c>
       <c r="AB3" t="s">
         <v>247</v>
@@ -8515,11 +8519,11 @@
       </c>
       <c r="AD3" s="74">
         <f t="shared" ref="AD3" ca="1" si="0">RANDBETWEEN(37000,40300)</f>
-        <v>39868</v>
+        <v>37938</v>
       </c>
       <c r="AE3" s="69">
         <f ca="1">RANDBETWEEN(29000,59000)</f>
-        <v>45088</v>
+        <v>56099</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -10219,7 +10223,7 @@
       </c>
       <c r="AA3" t="str">
         <f ca="1">CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;"-"&amp;RANDBETWEEN(1000,9999)&amp;"-"&amp;TEXT(ROWS(AA$2:AA3),"0000")</f>
-        <v>YJGC-9193-0002</v>
+        <v>NBCR-6970-0002</v>
       </c>
       <c r="AB3" t="s">
         <v>247</v>
@@ -10229,11 +10233,11 @@
       </c>
       <c r="AD3" s="74">
         <f t="shared" ref="AD3" ca="1" si="0">RANDBETWEEN(37000,40300)</f>
-        <v>37456</v>
+        <v>39580</v>
       </c>
       <c r="AE3" s="69">
         <f ca="1">RANDBETWEEN(29000,59000)</f>
-        <v>38613</v>
+        <v>57516</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -17372,7 +17376,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F24"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17383,6 +17387,7 @@
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" customWidth="1"/>
     <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
@@ -17422,6 +17427,9 @@
       <c r="F3" s="28" t="s">
         <v>216</v>
       </c>
+      <c r="G3" s="134" t="s">
+        <v>848</v>
+      </c>
       <c r="H3" s="88" t="s">
         <v>547</v>
       </c>
@@ -17448,7 +17456,7 @@
         <v>551</v>
       </c>
       <c r="F4" s="8">
-        <f>IF(D4="ProductLine1",INDEX($I$4:$I$7,MATCH(C4,$H$4:$H$7,0)),INDEX($L$4:$L$7,MATCH(C4,$K$4:$K$7,0)))</f>
+        <f>IF(D4="ProductLine1",INDEX($I$4:$I$7,MATCH(C4,$H$4:$H$7,0)),(B4*INDEX($L$4:$L$7,MATCH(C4,$K$4:$K$7,0))))</f>
         <v>125</v>
       </c>
       <c r="H4" s="5" t="s">
@@ -17481,7 +17489,7 @@
         <v>554</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" ref="F5:F24" si="0">IF(D5="ProductLine1",INDEX($I$4:$I$7,MATCH(C5,$H$4:$H$7,0)),INDEX($L$4:$L$7,MATCH(C5,$K$4:$K$7,0)))</f>
+        <f t="shared" ref="F5:F24" si="0">IF(D5="ProductLine1",INDEX($I$4:$I$7,MATCH(C5,$H$4:$H$7,0)),(B5*INDEX($L$4:$L$7,MATCH(C5,$K$4:$K$7,0))))</f>
         <v>125</v>
       </c>
       <c r="H5" s="5" t="s">
@@ -17548,7 +17556,7 @@
       </c>
       <c r="F7" s="8">
         <f t="shared" si="0"/>
-        <v>0.02</v>
+        <v>87.873400000000004</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>557</v>
@@ -17581,7 +17589,7 @@
       </c>
       <c r="F8" s="8">
         <f t="shared" si="0"/>
-        <v>2.75E-2</v>
+        <v>123.18900000000001</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -17602,7 +17610,7 @@
       </c>
       <c r="F9" s="8">
         <f t="shared" si="0"/>
-        <v>0.02</v>
+        <v>53.099600000000002</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -17623,7 +17631,7 @@
       </c>
       <c r="F10" s="8">
         <f t="shared" si="0"/>
-        <v>2.5000000000000001E-2</v>
+        <v>99.855500000000006</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -17665,7 +17673,7 @@
       </c>
       <c r="F12" s="8">
         <f t="shared" si="0"/>
-        <v>0.03</v>
+        <v>142.03020000000001</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -17728,7 +17736,7 @@
       </c>
       <c r="F15" s="8">
         <f t="shared" si="0"/>
-        <v>0.03</v>
+        <v>142.99199999999999</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -17770,7 +17778,7 @@
       </c>
       <c r="F17" s="8">
         <f t="shared" si="0"/>
-        <v>2.5000000000000001E-2</v>
+        <v>106.81700000000001</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -17812,7 +17820,7 @@
       </c>
       <c r="F19" s="8">
         <f t="shared" si="0"/>
-        <v>0.03</v>
+        <v>131.6799</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -17896,7 +17904,7 @@
       </c>
       <c r="F23" s="8">
         <f t="shared" si="0"/>
-        <v>0.02</v>
+        <v>55.460600000000007</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -17917,7 +17925,7 @@
       </c>
       <c r="F24" s="8">
         <f t="shared" si="0"/>
-        <v>0.03</v>
+        <v>64.365300000000005</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">

--- a/Busn218-Video11_edit.xlsx
+++ b/Busn218-Video11_edit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galvanize/Documents/excel/vlookups/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8815C9-5DF3-FA47-BF0B-BA42C45C601F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DCCB6D-30D2-5440-A2C1-226D50F33831}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" firstSheet="9" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" firstSheet="11" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="25" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2542" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2543" uniqueCount="849">
   <si>
     <t>Boomerang</t>
   </si>
@@ -4183,7 +4183,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4373,6 +4373,7 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Currency" xfId="4" builtinId="4"/>
@@ -8509,7 +8510,7 @@
       </c>
       <c r="AA3" t="str">
         <f ca="1">CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;"-"&amp;RANDBETWEEN(1000,9999)&amp;"-"&amp;TEXT(ROWS(AA$2:AA3),"0000")</f>
-        <v>URXP-4907-0002</v>
+        <v>QZEP-3220-0002</v>
       </c>
       <c r="AB3" t="s">
         <v>247</v>
@@ -8519,11 +8520,11 @@
       </c>
       <c r="AD3" s="74">
         <f t="shared" ref="AD3" ca="1" si="0">RANDBETWEEN(37000,40300)</f>
-        <v>37938</v>
+        <v>40266</v>
       </c>
       <c r="AE3" s="69">
         <f ca="1">RANDBETWEEN(29000,59000)</f>
-        <v>56099</v>
+        <v>56105</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -10223,7 +10224,7 @@
       </c>
       <c r="AA3" t="str">
         <f ca="1">CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;"-"&amp;RANDBETWEEN(1000,9999)&amp;"-"&amp;TEXT(ROWS(AA$2:AA3),"0000")</f>
-        <v>NBCR-6970-0002</v>
+        <v>FDRN-5401-0002</v>
       </c>
       <c r="AB3" t="s">
         <v>247</v>
@@ -10233,11 +10234,11 @@
       </c>
       <c r="AD3" s="74">
         <f t="shared" ref="AD3" ca="1" si="0">RANDBETWEEN(37000,40300)</f>
-        <v>39580</v>
+        <v>37462</v>
       </c>
       <c r="AE3" s="69">
         <f ca="1">RANDBETWEEN(29000,59000)</f>
-        <v>57516</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -17375,8 +17376,8 @@
   </sheetPr>
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17459,6 +17460,10 @@
         <f>IF(D4="ProductLine1",INDEX($I$4:$I$7,MATCH(C4,$H$4:$H$7,0)),(B4*INDEX($L$4:$L$7,MATCH(C4,$K$4:$K$7,0))))</f>
         <v>125</v>
       </c>
+      <c r="G4">
+        <f>IF(D4="ProductLine1",VLOOKUP(C4,$H$4:$I$7,2,TRUE),B4*VLOOKUP(C4,$K$4:$L$7,2,0))</f>
+        <v>125</v>
+      </c>
       <c r="H4" s="5" t="s">
         <v>552</v>
       </c>
@@ -17492,6 +17497,10 @@
         <f t="shared" ref="F5:F24" si="0">IF(D5="ProductLine1",INDEX($I$4:$I$7,MATCH(C5,$H$4:$H$7,0)),(B5*INDEX($L$4:$L$7,MATCH(C5,$K$4:$K$7,0))))</f>
         <v>125</v>
       </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G24" si="1">IF(D5="ProductLine1",VLOOKUP(C5,$H$4:$I$7,2,TRUE),B5*VLOOKUP(C5,$K$4:$L$7,2,0))</f>
+        <v>125</v>
+      </c>
       <c r="H5" s="5" t="s">
         <v>555</v>
       </c>
@@ -17525,6 +17534,10 @@
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
       <c r="H6" s="5" t="s">
         <v>549</v>
       </c>
@@ -17558,6 +17571,10 @@
         <f t="shared" si="0"/>
         <v>87.873400000000004</v>
       </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>87.873400000000004</v>
+      </c>
       <c r="H7" s="5" t="s">
         <v>557</v>
       </c>
@@ -17591,6 +17608,10 @@
         <f t="shared" si="0"/>
         <v>123.18900000000001</v>
       </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>123.18900000000001</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
@@ -17612,6 +17633,10 @@
         <f t="shared" si="0"/>
         <v>53.099600000000002</v>
       </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>53.099600000000002</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
@@ -17633,6 +17658,10 @@
         <f t="shared" si="0"/>
         <v>99.855500000000006</v>
       </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>99.855500000000006</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
@@ -17654,6 +17683,10 @@
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
@@ -17675,6 +17708,10 @@
         <f t="shared" si="0"/>
         <v>142.03020000000001</v>
       </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>142.03020000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
@@ -17696,6 +17733,10 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
@@ -17717,6 +17758,10 @@
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
@@ -17738,6 +17783,10 @@
         <f t="shared" si="0"/>
         <v>142.99199999999999</v>
       </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>142.99199999999999</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
@@ -17759,8 +17808,12 @@
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>40328</v>
       </c>
@@ -17780,8 +17833,12 @@
         <f t="shared" si="0"/>
         <v>106.81700000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>106.81700000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>40329</v>
       </c>
@@ -17801,8 +17858,12 @@
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>40330</v>
       </c>
@@ -17822,8 +17883,12 @@
         <f t="shared" si="0"/>
         <v>131.6799</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>131.6799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>40331</v>
       </c>
@@ -17843,8 +17908,12 @@
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>40332</v>
       </c>
@@ -17864,8 +17933,12 @@
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>40333</v>
       </c>
@@ -17885,8 +17958,12 @@
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>40334</v>
       </c>
@@ -17906,8 +17983,12 @@
         <f t="shared" si="0"/>
         <v>55.460600000000007</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>55.460600000000007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>40335</v>
       </c>
@@ -17927,8 +18008,12 @@
         <f t="shared" si="0"/>
         <v>64.365300000000005</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>64.365300000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E25" s="91"/>
     </row>
   </sheetData>
@@ -17943,7 +18028,7 @@
   </sheetPr>
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -18507,8 +18592,8 @@
   </sheetPr>
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18554,6 +18639,9 @@
       <c r="F3" s="28" t="s">
         <v>216</v>
       </c>
+      <c r="G3" s="134" t="s">
+        <v>847</v>
+      </c>
       <c r="I3" s="88" t="s">
         <v>581</v>
       </c>
@@ -18579,7 +18667,14 @@
       <c r="E4" s="90" t="s">
         <v>551</v>
       </c>
-      <c r="F4" s="16"/>
+      <c r="F4" s="135">
+        <f>IF(D4="ProductLine1", B4* INDEX($J$4:$J$7, MATCH(C4,$I$4:$I$7,0)), B4*INDEX($M$4:$M$7, MATCH(C4,$L$4:$L$7,0)))</f>
+        <v>128.5684</v>
+      </c>
+      <c r="G4">
+        <f>IF(D4="ProductLine1",B4*VLOOKUP(C4,$I$4:$J$7,2,FALSE),B4*VLOOKUP(C4,$L$4:$M$7,2,FALSE))</f>
+        <v>128.5684</v>
+      </c>
       <c r="I4" s="5" t="s">
         <v>552</v>
       </c>
@@ -18609,7 +18704,14 @@
       <c r="E5" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="F5" s="16"/>
+      <c r="F5" s="135">
+        <f t="shared" ref="F5:F24" si="0">IF(D5="ProductLine1", B5* INDEX($J$4:$J$7, MATCH(C5,$I$4:$I$7,0)), B5*INDEX($M$4:$M$7, MATCH(C5,$L$4:$L$7,0)))</f>
+        <v>113.58320000000001</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G24" si="1">IF(D5="ProductLine1",B5*VLOOKUP(C5,$I$4:$J$7,2,FALSE),B5*VLOOKUP(C5,$L$4:$M$7,2,FALSE))</f>
+        <v>113.58320000000001</v>
+      </c>
       <c r="I5" s="5" t="s">
         <v>555</v>
       </c>
@@ -18639,7 +18741,14 @@
       <c r="E6" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="F6" s="16"/>
+      <c r="F6" s="135">
+        <f t="shared" si="0"/>
+        <v>204.02350000000001</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>204.02350000000001</v>
+      </c>
       <c r="I6" s="5" t="s">
         <v>549</v>
       </c>
@@ -18669,7 +18778,14 @@
       <c r="E7" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="F7" s="16"/>
+      <c r="F7" s="135">
+        <f t="shared" si="0"/>
+        <v>87.873400000000004</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>87.873400000000004</v>
+      </c>
       <c r="I7" s="5" t="s">
         <v>557</v>
       </c>
@@ -18699,7 +18815,14 @@
       <c r="E8" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="F8" s="16"/>
+      <c r="F8" s="135">
+        <f t="shared" si="0"/>
+        <v>123.18900000000001</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>123.18900000000001</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
@@ -18717,7 +18840,14 @@
       <c r="E9" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="F9" s="16"/>
+      <c r="F9" s="135">
+        <f t="shared" si="0"/>
+        <v>53.099600000000002</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>53.099600000000002</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
@@ -18735,7 +18865,14 @@
       <c r="E10" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="F10" s="16"/>
+      <c r="F10" s="135">
+        <f t="shared" si="0"/>
+        <v>99.855500000000006</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>99.855500000000006</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
@@ -18753,7 +18890,14 @@
       <c r="E11" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="F11" s="16"/>
+      <c r="F11" s="135">
+        <f t="shared" si="0"/>
+        <v>143.45800000000003</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>143.45800000000003</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
@@ -18771,7 +18915,14 @@
       <c r="E12" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="F12" s="16"/>
+      <c r="F12" s="135">
+        <f t="shared" si="0"/>
+        <v>142.03020000000001</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>142.03020000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
@@ -18789,7 +18940,14 @@
       <c r="E13" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="F13" s="16"/>
+      <c r="F13" s="135">
+        <f t="shared" si="0"/>
+        <v>104.79299999999999</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>104.79299999999999</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
@@ -18807,7 +18965,14 @@
       <c r="E14" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="F14" s="16"/>
+      <c r="F14" s="135">
+        <f t="shared" si="0"/>
+        <v>114.95085</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>114.95085</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
@@ -18825,7 +18990,14 @@
       <c r="E15" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="F15" s="16"/>
+      <c r="F15" s="135">
+        <f t="shared" si="0"/>
+        <v>142.99199999999999</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>142.99199999999999</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
@@ -18843,9 +19015,16 @@
       <c r="E16" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F16" s="135">
+        <f t="shared" si="0"/>
+        <v>144.06440000000001</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>144.06440000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>40328</v>
       </c>
@@ -18861,9 +19040,16 @@
       <c r="E17" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="135">
+        <f t="shared" si="0"/>
+        <v>106.81700000000001</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>106.81700000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>40329</v>
       </c>
@@ -18879,9 +19065,16 @@
       <c r="E18" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="135">
+        <f t="shared" si="0"/>
+        <v>85.707599999999999</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>85.707599999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>40330</v>
       </c>
@@ -18897,9 +19090,16 @@
       <c r="E19" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F19" s="135">
+        <f t="shared" si="0"/>
+        <v>131.6799</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>131.6799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>40331</v>
       </c>
@@ -18915,9 +19115,16 @@
       <c r="E20" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="F20" s="16"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F20" s="135">
+        <f t="shared" si="0"/>
+        <v>193.809</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>193.809</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>40332</v>
       </c>
@@ -18933,9 +19140,16 @@
       <c r="E21" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F21" s="135">
+        <f t="shared" si="0"/>
+        <v>136.76985000000002</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>136.76985000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>40333</v>
       </c>
@@ -18951,9 +19165,16 @@
       <c r="E22" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="F22" s="16"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F22" s="135">
+        <f t="shared" si="0"/>
+        <v>207.535</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>207.535</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>40334</v>
       </c>
@@ -18969,9 +19190,16 @@
       <c r="E23" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="F23" s="16"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F23" s="135">
+        <f t="shared" si="0"/>
+        <v>55.460600000000007</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>55.460600000000007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>40335</v>
       </c>
@@ -18987,9 +19215,16 @@
       <c r="E24" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="F24" s="16"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F24" s="135">
+        <f t="shared" si="0"/>
+        <v>64.365300000000005</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>64.365300000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E25" s="91"/>
     </row>
   </sheetData>

--- a/Busn218-Video11_edit.xlsx
+++ b/Busn218-Video11_edit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galvanize/Documents/excel/vlookups/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DCCB6D-30D2-5440-A2C1-226D50F33831}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1258FFDA-61C5-1E42-AC5F-77497632A401}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" firstSheet="11" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" firstSheet="12" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="25" r:id="rId1"/>
@@ -8510,7 +8510,7 @@
       </c>
       <c r="AA3" t="str">
         <f ca="1">CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;"-"&amp;RANDBETWEEN(1000,9999)&amp;"-"&amp;TEXT(ROWS(AA$2:AA3),"0000")</f>
-        <v>QZEP-3220-0002</v>
+        <v>BYXT-4771-0002</v>
       </c>
       <c r="AB3" t="s">
         <v>247</v>
@@ -8520,11 +8520,11 @@
       </c>
       <c r="AD3" s="74">
         <f t="shared" ref="AD3" ca="1" si="0">RANDBETWEEN(37000,40300)</f>
-        <v>40266</v>
+        <v>37752</v>
       </c>
       <c r="AE3" s="69">
         <f ca="1">RANDBETWEEN(29000,59000)</f>
-        <v>56105</v>
+        <v>29014</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -10224,7 +10224,7 @@
       </c>
       <c r="AA3" t="str">
         <f ca="1">CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;"-"&amp;RANDBETWEEN(1000,9999)&amp;"-"&amp;TEXT(ROWS(AA$2:AA3),"0000")</f>
-        <v>FDRN-5401-0002</v>
+        <v>DIUJ-6543-0002</v>
       </c>
       <c r="AB3" t="s">
         <v>247</v>
@@ -10234,11 +10234,11 @@
       </c>
       <c r="AD3" s="74">
         <f t="shared" ref="AD3" ca="1" si="0">RANDBETWEEN(37000,40300)</f>
-        <v>37462</v>
+        <v>37646</v>
       </c>
       <c r="AE3" s="69">
         <f ca="1">RANDBETWEEN(29000,59000)</f>
-        <v>45961</v>
+        <v>36720</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -18592,7 +18592,7 @@
   </sheetPr>
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="93" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="93" workbookViewId="0">
       <selection activeCell="G4" sqref="G4:G24"/>
     </sheetView>
   </sheetViews>
@@ -19886,8 +19886,8 @@
   </sheetPr>
   <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19923,7 +19923,10 @@
       <c r="A4" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="16">
+        <f>SUM(INDEX($A$6:$L$93,,MATCH($B$3, $A$6:$L$6, 0)))</f>
+        <v>702351</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -23288,7 +23291,7 @@
   <dimension ref="A1:L93"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -26674,7 +26677,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-1B00-000000000000}">
       <formula1>$A$6:$L$6</formula1>
     </dataValidation>

--- a/Busn218-Video11_edit.xlsx
+++ b/Busn218-Video11_edit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galvanize/Documents/excel/vlookups/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1258FFDA-61C5-1E42-AC5F-77497632A401}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36455095-D8F5-F446-9A59-BDD6D3D7976F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" firstSheet="12" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" firstSheet="15" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="25" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2543" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="850">
   <si>
     <t>Boomerang</t>
   </si>
@@ -3777,6 +3777,9 @@
   </si>
   <si>
     <t>w/ Vlookup</t>
+  </si>
+  <si>
+    <t>Cost of each product sold</t>
   </si>
 </sst>
 </file>
@@ -8510,7 +8513,7 @@
       </c>
       <c r="AA3" t="str">
         <f ca="1">CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;"-"&amp;RANDBETWEEN(1000,9999)&amp;"-"&amp;TEXT(ROWS(AA$2:AA3),"0000")</f>
-        <v>BYXT-4771-0002</v>
+        <v>UNUC-4446-0002</v>
       </c>
       <c r="AB3" t="s">
         <v>247</v>
@@ -8520,11 +8523,11 @@
       </c>
       <c r="AD3" s="74">
         <f t="shared" ref="AD3" ca="1" si="0">RANDBETWEEN(37000,40300)</f>
-        <v>37752</v>
+        <v>39961</v>
       </c>
       <c r="AE3" s="69">
         <f ca="1">RANDBETWEEN(29000,59000)</f>
-        <v>29014</v>
+        <v>31244</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -10224,7 +10227,7 @@
       </c>
       <c r="AA3" t="str">
         <f ca="1">CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;"-"&amp;RANDBETWEEN(1000,9999)&amp;"-"&amp;TEXT(ROWS(AA$2:AA3),"0000")</f>
-        <v>DIUJ-6543-0002</v>
+        <v>LYXX-7932-0002</v>
       </c>
       <c r="AB3" t="s">
         <v>247</v>
@@ -10234,11 +10237,11 @@
       </c>
       <c r="AD3" s="74">
         <f t="shared" ref="AD3" ca="1" si="0">RANDBETWEEN(37000,40300)</f>
-        <v>37646</v>
+        <v>37587</v>
       </c>
       <c r="AE3" s="69">
         <f ca="1">RANDBETWEEN(29000,59000)</f>
-        <v>36720</v>
+        <v>54052</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -19886,7 +19889,7 @@
   </sheetPr>
   <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="118" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -26692,16 +26695,17 @@
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -26727,6 +26731,9 @@
       <c r="B4" s="4" t="s">
         <v>608</v>
       </c>
+      <c r="C4" t="s">
+        <v>849</v>
+      </c>
       <c r="H4" s="116" t="s">
         <v>610</v>
       </c>
@@ -26739,6 +26746,10 @@
       <c r="B5" s="5" t="s">
         <v>510</v>
       </c>
+      <c r="C5">
+        <f>VLOOKUP(B5,$H$6:$I$8,2)</f>
+        <v>12.5</v>
+      </c>
       <c r="H5" s="4" t="s">
         <v>20</v>
       </c>
@@ -26753,6 +26764,10 @@
       <c r="B6" s="5" t="s">
         <v>512</v>
       </c>
+      <c r="C6">
+        <f t="shared" ref="C6:C26" si="0">VLOOKUP(B6,$H$6:$I$8,2)</f>
+        <v>5.75</v>
+      </c>
       <c r="H6" s="5" t="s">
         <v>510</v>
       </c>
@@ -26767,6 +26782,10 @@
       <c r="B7" s="5" t="s">
         <v>512</v>
       </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>5.75</v>
+      </c>
       <c r="H7" s="5" t="s">
         <v>511</v>
       </c>
@@ -26781,6 +26800,10 @@
       <c r="B8" s="5" t="s">
         <v>512</v>
       </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>5.75</v>
+      </c>
       <c r="H8" s="5" t="s">
         <v>512</v>
       </c>
@@ -26795,6 +26818,10 @@
       <c r="B9" s="5" t="s">
         <v>511</v>
       </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
@@ -26803,6 +26830,10 @@
       <c r="B10" s="5" t="s">
         <v>512</v>
       </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>5.75</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
@@ -26811,6 +26842,10 @@
       <c r="B11" s="5" t="s">
         <v>510</v>
       </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
@@ -26819,6 +26854,10 @@
       <c r="B12" s="5" t="s">
         <v>511</v>
       </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
@@ -26827,6 +26866,10 @@
       <c r="B13" s="5" t="s">
         <v>512</v>
       </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>5.75</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
@@ -26835,6 +26878,10 @@
       <c r="B14" s="5" t="s">
         <v>511</v>
       </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
@@ -26843,6 +26890,10 @@
       <c r="B15" s="5" t="s">
         <v>512</v>
       </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>5.75</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
@@ -26851,85 +26902,135 @@
       <c r="B16" s="5" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>42491</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>42491</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>42497</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>42495</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>42499</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>42499</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>42494</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>42498</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>42502</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>42498</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>512</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <f>SUM(C5:C26)</f>
+        <v>239.75</v>
       </c>
     </row>
   </sheetData>
@@ -30133,7 +30234,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -30501,7 +30602,7 @@
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>

--- a/Busn218-Video11_edit.xlsx
+++ b/Busn218-Video11_edit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galvanize/Documents/excel/vlookups/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36455095-D8F5-F446-9A59-BDD6D3D7976F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544EA5E8-8FBB-6142-8D01-9B213CC7471A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" firstSheet="15" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" firstSheet="16" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="25" r:id="rId1"/>
@@ -8513,7 +8513,7 @@
       </c>
       <c r="AA3" t="str">
         <f ca="1">CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;"-"&amp;RANDBETWEEN(1000,9999)&amp;"-"&amp;TEXT(ROWS(AA$2:AA3),"0000")</f>
-        <v>UNUC-4446-0002</v>
+        <v>TKWQ-4769-0002</v>
       </c>
       <c r="AB3" t="s">
         <v>247</v>
@@ -8523,11 +8523,11 @@
       </c>
       <c r="AD3" s="74">
         <f t="shared" ref="AD3" ca="1" si="0">RANDBETWEEN(37000,40300)</f>
-        <v>39961</v>
+        <v>37498</v>
       </c>
       <c r="AE3" s="69">
         <f ca="1">RANDBETWEEN(29000,59000)</f>
-        <v>31244</v>
+        <v>42889</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -10227,7 +10227,7 @@
       </c>
       <c r="AA3" t="str">
         <f ca="1">CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;"-"&amp;RANDBETWEEN(1000,9999)&amp;"-"&amp;TEXT(ROWS(AA$2:AA3),"0000")</f>
-        <v>LYXX-7932-0002</v>
+        <v>HDYF-5942-0002</v>
       </c>
       <c r="AB3" t="s">
         <v>247</v>
@@ -10237,11 +10237,11 @@
       </c>
       <c r="AD3" s="74">
         <f t="shared" ref="AD3" ca="1" si="0">RANDBETWEEN(37000,40300)</f>
-        <v>37587</v>
+        <v>38694</v>
       </c>
       <c r="AE3" s="69">
         <f ca="1">RANDBETWEEN(29000,59000)</f>
-        <v>54052</v>
+        <v>48293</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -30602,8 +30602,8 @@
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -30656,8 +30656,14 @@
       <c r="C6" s="5" t="s">
         <v>783</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="D6" s="8" t="b">
+        <f>ISNUMBER(MATCH(C6, $A$6:$A$15, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="8" t="b">
+        <f>ISNA(MATCH(C6,$A$6:$A$15,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
@@ -30666,8 +30672,14 @@
       <c r="C7" s="5" t="s">
         <v>784</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="D7" s="8" t="b">
+        <f t="shared" ref="D7:D13" si="0">ISNUMBER(MATCH(C7, $A$6:$A$15, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="8" t="b">
+        <f t="shared" ref="G7:G13" si="1">ISNA(MATCH(C7,$A$6:$A$15,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -30676,8 +30688,14 @@
       <c r="C8" s="5" t="s">
         <v>785</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="D8" s="8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="8" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -30686,8 +30704,14 @@
       <c r="C9" s="5" t="s">
         <v>792</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="D9" s="8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="8" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -30696,8 +30720,14 @@
       <c r="C10" s="5" t="s">
         <v>787</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="D10" s="8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="8" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -30706,8 +30736,14 @@
       <c r="C11" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="D11" s="8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="8" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
@@ -30716,8 +30752,14 @@
       <c r="C12" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="D12" s="8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="8" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
@@ -30726,8 +30768,14 @@
       <c r="C13" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="D13" s="8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="8" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
